--- a/output/allirr_sens.xlsx
+++ b/output/allirr_sens.xlsx
@@ -70,7 +70,7 @@
         <v>0.12636555731296539</v>
       </c>
       <c r="F1" s="0">
-        <v>0.048414941877126701</v>
+        <v>0.045029263943433803</v>
       </c>
     </row>
     <row r="2">

--- a/output/allirr_sens.xlsx
+++ b/output/allirr_sens.xlsx
@@ -115,258 +115,424 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.099347189068794306</v>
+        <v>0.1708621084690094</v>
       </c>
       <c r="B4" s="0">
-        <v>0.12651921808719641</v>
+        <v>0.0141893057152629</v>
       </c>
       <c r="C4" s="0">
-        <v>0.110483281314373</v>
+        <v>0.0062043797224760004</v>
       </c>
       <c r="D4" s="0">
-        <v>0.12651921808719641</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.1036057323217392</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0.11451206356287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.055597618222236599</v>
+        <v>0.099347189068794306</v>
       </c>
       <c r="B5" s="0">
-        <v>0.050553500652313198</v>
+        <v>0.097613118588924394</v>
       </c>
       <c r="C5" s="0">
-        <v>0.047116104513406802</v>
+        <v>0.110483281314373</v>
       </c>
       <c r="D5" s="0">
-        <v>0.050553500652313198</v>
+        <v>0.12651921808719641</v>
       </c>
       <c r="E5" s="0">
-        <v>0.044696431607008001</v>
+        <v>0.1036057323217392</v>
       </c>
       <c r="F5" s="0">
-        <v>0.043288793414831203</v>
+        <v>0.11451206356287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.13118936121463781</v>
+        <v>0.055597618222236599</v>
       </c>
       <c r="B6" s="0">
-        <v>0.089120998978614793</v>
+        <v>0.051612280309200301</v>
       </c>
       <c r="C6" s="0">
-        <v>0.084695793688297299</v>
+        <v>0.047116104513406802</v>
       </c>
       <c r="D6" s="0">
-        <v>0.1617773920297623</v>
+        <v>0.050553500652313198</v>
       </c>
       <c r="E6" s="0">
-        <v>0.099692165851593004</v>
+        <v>0.044696431607008001</v>
       </c>
       <c r="F6" s="0">
-        <v>0.13170374929904941</v>
+        <v>0.043288793414831203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.046035692095756503</v>
+        <v>0.11696202307939529</v>
       </c>
       <c r="B7" s="0">
-        <v>0.057055823504924802</v>
+        <v>0.094544097781181294</v>
       </c>
       <c r="C7" s="0">
-        <v>0.038352426141500501</v>
+        <v>0.055263452231884003</v>
       </c>
       <c r="D7" s="0">
-        <v>0.043900080025196103</v>
+        <v>0.042956911027431502</v>
       </c>
       <c r="E7" s="0">
-        <v>0.033729434013366699</v>
+        <v>0.061488322913646698</v>
       </c>
       <c r="F7" s="0">
-        <v>0.038728371262550403</v>
+        <v>0.0149503648281097</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.127987265586853</v>
+        <v>0.13118936121463781</v>
       </c>
       <c r="B8" s="0">
-        <v>0.067590735852718395</v>
+        <v>0.089120998978614793</v>
       </c>
       <c r="C8" s="0">
-        <v>0.17504540085792539</v>
+        <v>0.084695793688297299</v>
       </c>
       <c r="D8" s="0">
-        <v>0.11824943870306021</v>
+        <v>0.1617773920297623</v>
       </c>
       <c r="E8" s="0">
-        <v>0.17364488542079931</v>
+        <v>0.099692165851593004</v>
       </c>
       <c r="F8" s="0">
-        <v>0.1029663383960724</v>
+        <v>0.13170374929904941</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.089258164167404203</v>
+        <v>0.046035692095756503</v>
       </c>
       <c r="B9" s="0">
-        <v>0.036918405443429898</v>
+        <v>0.057055823504924802</v>
       </c>
       <c r="C9" s="0">
-        <v>0.063356123864650699</v>
+        <v>0.038352426141500501</v>
       </c>
       <c r="D9" s="0">
-        <v>0.042370557785034201</v>
+        <v>0.043900080025196103</v>
       </c>
       <c r="E9" s="0">
-        <v>0.063783794641494806</v>
+        <v>0.033729434013366699</v>
       </c>
       <c r="F9" s="0">
-        <v>0.0374918468296528</v>
+        <v>0.038728371262550403</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1037345007061958</v>
-      </c>
-      <c r="B10" s="0"/>
+        <v>0.0095532452687620995</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.1673649400472641</v>
+      </c>
       <c r="C10" s="0">
-        <v>0.1479759365320206</v>
-      </c>
-      <c r="D10" s="0"/>
+        <v>0.084828712046146407</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0</v>
+      </c>
       <c r="E10" s="0">
-        <v>0.14201965928077701</v>
-      </c>
-      <c r="F10" s="0"/>
+        <v>0.037631433457136203</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.069319948554039001</v>
-      </c>
-      <c r="B11" s="0"/>
+        <v>0.127987265586853</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.067590735852718395</v>
+      </c>
       <c r="C11" s="0">
-        <v>0.053440123796462999</v>
-      </c>
-      <c r="D11" s="0"/>
+        <v>0.17504540085792539</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.11824943870306021</v>
+      </c>
       <c r="E11" s="0">
-        <v>0.0532983988523483</v>
-      </c>
-      <c r="F11" s="0"/>
+        <v>0.17364488542079931</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.1029663383960724</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.079824782907962799</v>
-      </c>
-      <c r="B12" s="0"/>
+        <v>0.089258164167404203</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.036918405443429898</v>
+      </c>
       <c r="C12" s="0">
-        <v>0.12730076909065249</v>
-      </c>
-      <c r="D12" s="0"/>
+        <v>0.063356123864650699</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.042370557785034201</v>
+      </c>
       <c r="E12" s="0">
-        <v>0.12161735445261</v>
-      </c>
-      <c r="F12" s="0"/>
+        <v>0.063783794641494806</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.0374918468296528</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.053111270070076003</v>
-      </c>
-      <c r="B13" s="0"/>
+        <v>0.15497869253158569</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.1412004083395004</v>
+      </c>
       <c r="C13" s="0">
-        <v>0.054471429437398897</v>
-      </c>
-      <c r="D13" s="0"/>
+        <v>0.0092592593282460993</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.0163674764335155</v>
+      </c>
       <c r="E13" s="0">
-        <v>0.047188103199005099</v>
-      </c>
-      <c r="F13" s="0"/>
+        <v>0.017477329820394499</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.0097207492217422</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.089088521897792802</v>
-      </c>
-      <c r="B14" s="0">
-        <v>0.08082165569067</v>
-      </c>
+        <v>0.1037345007061958</v>
+      </c>
+      <c r="B14" s="0"/>
       <c r="C14" s="0">
-        <v>0.15277692675590521</v>
-      </c>
-      <c r="D14" s="0">
-        <v>0.12162149697542191</v>
-      </c>
+        <v>0.1479759365320206</v>
+      </c>
+      <c r="D14" s="0"/>
       <c r="E14" s="0">
-        <v>0.1235839501023293</v>
-      </c>
-      <c r="F14" s="0">
-        <v>0.10980309545993799</v>
-      </c>
+        <v>0.14201965928077701</v>
+      </c>
+      <c r="F14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.051596552133560201</v>
-      </c>
-      <c r="B15" s="0">
-        <v>0.051078137010335901</v>
-      </c>
+        <v>0.069319948554039001</v>
+      </c>
+      <c r="B15" s="0"/>
       <c r="C15" s="0">
-        <v>0.043159361928701401</v>
-      </c>
-      <c r="D15" s="0">
-        <v>0.045712232589721701</v>
-      </c>
+        <v>0.053440123796462999</v>
+      </c>
+      <c r="D15" s="0"/>
       <c r="E15" s="0">
-        <v>0.044496078044176102</v>
-      </c>
-      <c r="F15" s="0">
-        <v>0.043957620859146097</v>
-      </c>
+        <v>0.0532983988523483</v>
+      </c>
+      <c r="F15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.091077961027622195</v>
-      </c>
-      <c r="B16" s="0">
-        <v>0.085369579493999495</v>
-      </c>
+        <v>0.14548081159591669</v>
+      </c>
+      <c r="B16" s="0"/>
       <c r="C16" s="0">
-        <v>0.1362168341875076</v>
-      </c>
-      <c r="D16" s="0">
-        <v>0.13417588174343109</v>
-      </c>
+        <v>0.0122901163995266</v>
+      </c>
+      <c r="D16" s="0"/>
       <c r="E16" s="0">
-        <v>0.1123915687203407</v>
-      </c>
-      <c r="F16" s="0">
-        <v>0.12743611633777621</v>
-      </c>
+        <v>0.016887186095118498</v>
+      </c>
+      <c r="F16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0">
+        <v>0.084288805723190294</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0.088526733219623593</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0.134881466627121</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.14078095555305481</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0.12517888844013211</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0.12737710773944849</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.052193060517311103</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0.051233503967523603</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0.050449974834918997</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0.0470926240086555</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0.045394282788038302</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0.044886264950037003</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.13597281277179721</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.1181400939822197</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0.017799075692892099</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0.0062797013670206001</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0.010560381226241601</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0.0104659013450146</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.089088521897792802</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.08082165569067</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0.15277692675590521</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0.12162149697542191</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0.1235839501023293</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0.10980309545993799</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.089088521897792802</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0.051078137010335901</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0.15277692675590521</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0.045712232589721701</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0.1235839501023293</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0.043957620859146097</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.089088521897792802</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.1503686457872391</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0.15277692675590521</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0.016634367406368301</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0.1235839501023293</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0.0305662807077169</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.091077961027622195</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.085369579493999495</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0.1362168341875076</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.13417588174343109</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0.1123915687203407</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0.12743611633777621</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
         <v>0.052658576518297202</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B24" s="0">
         <v>0.052367225289344801</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C24" s="0">
         <v>0.049387026578187901</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D24" s="0">
         <v>0.052732232958078398</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E24" s="0">
         <v>0.057841815054416698</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F24" s="0">
         <v>0.044944088906049701</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.11751227825880051</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.13197025656700129</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0.0097688827663659997</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.0203650631010532</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0.0398662537336349</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0.0107903182506561</v>
       </c>
     </row>
   </sheetData>

--- a/output/allirr_sens.xlsx
+++ b/output/allirr_sens.xlsx
@@ -55,79 +55,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
+        <v>0.12636555731296539</v>
+      </c>
+      <c r="B1" s="0">
+        <v>0.045029263943433803</v>
+      </c>
+      <c r="C1" s="0">
         <v>0.086773470044136006</v>
       </c>
-      <c r="B1" s="0">
+      <c r="D1" s="0">
         <v>0.051597706973552697</v>
       </c>
-      <c r="C1" s="0">
+      <c r="E1" s="0">
         <v>0.13812857866287229</v>
       </c>
-      <c r="D1" s="0">
+      <c r="F1" s="0">
         <v>0.048414941877126701</v>
-      </c>
-      <c r="E1" s="0">
-        <v>0.12636555731296539</v>
-      </c>
-      <c r="F1" s="0">
-        <v>0.045029263943433803</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
+        <v>0.13596199452877039</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.12247072160243989</v>
+      </c>
+      <c r="C2" s="0">
         <v>0.092296555638313293</v>
       </c>
-      <c r="B2" s="0">
+      <c r="D2" s="0">
         <v>0.087023288011550903</v>
       </c>
-      <c r="C2" s="0">
+      <c r="E2" s="0">
         <v>0.1470357030630112</v>
       </c>
-      <c r="D2" s="0">
+      <c r="F2" s="0">
         <v>0.14765714108943939</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0.13596199452877039</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0.12247072160243989</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
+        <v>0.044072266668081297</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.039431847631931298</v>
+      </c>
+      <c r="C3" s="0">
         <v>0.059244722127914401</v>
       </c>
-      <c r="B3" s="0">
+      <c r="D3" s="0">
         <v>0.032009117305278799</v>
       </c>
-      <c r="C3" s="0">
+      <c r="E3" s="0">
         <v>0.060474451631307602</v>
       </c>
-      <c r="D3" s="0">
+      <c r="F3" s="0">
         <v>0.037413988262414898</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.044072266668081297</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.039431847631931298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
         <v>0.1708621084690094</v>
       </c>
-      <c r="B4" s="0">
+      <c r="D4" s="0">
         <v>0.0141893057152629</v>
       </c>
-      <c r="C4" s="0">
+      <c r="E4" s="0">
         <v>0.0062043797224760004</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -135,119 +135,119 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
+        <v>0.1036057323217392</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.11451206356287</v>
+      </c>
+      <c r="C5" s="0">
         <v>0.099347189068794306</v>
       </c>
-      <c r="B5" s="0">
+      <c r="D5" s="0">
         <v>0.097613118588924394</v>
       </c>
-      <c r="C5" s="0">
+      <c r="E5" s="0">
         <v>0.110483281314373</v>
       </c>
-      <c r="D5" s="0">
+      <c r="F5" s="0">
         <v>0.12651921808719641</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0.1036057323217392</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0.11451206356287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
+        <v>0.044696431607008001</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.043288793414831203</v>
+      </c>
+      <c r="C6" s="0">
         <v>0.055597618222236599</v>
       </c>
-      <c r="B6" s="0">
+      <c r="D6" s="0">
         <v>0.051612280309200301</v>
       </c>
-      <c r="C6" s="0">
+      <c r="E6" s="0">
         <v>0.047116104513406802</v>
       </c>
-      <c r="D6" s="0">
+      <c r="F6" s="0">
         <v>0.050553500652313198</v>
-      </c>
-      <c r="E6" s="0">
-        <v>0.044696431607008001</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0.043288793414831203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
+        <v>0.061488322913646698</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.0149503648281097</v>
+      </c>
+      <c r="C7" s="0">
         <v>0.11696202307939529</v>
       </c>
-      <c r="B7" s="0">
+      <c r="D7" s="0">
         <v>0.094544097781181294</v>
       </c>
-      <c r="C7" s="0">
+      <c r="E7" s="0">
         <v>0.055263452231884003</v>
       </c>
-      <c r="D7" s="0">
+      <c r="F7" s="0">
         <v>0.042956911027431502</v>
-      </c>
-      <c r="E7" s="0">
-        <v>0.061488322913646698</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0.0149503648281097</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
+        <v>0.099692165851593004</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.13170374929904941</v>
+      </c>
+      <c r="C8" s="0">
         <v>0.13118936121463781</v>
       </c>
-      <c r="B8" s="0">
+      <c r="D8" s="0">
         <v>0.089120998978614793</v>
       </c>
-      <c r="C8" s="0">
+      <c r="E8" s="0">
         <v>0.084695793688297299</v>
       </c>
-      <c r="D8" s="0">
+      <c r="F8" s="0">
         <v>0.1617773920297623</v>
-      </c>
-      <c r="E8" s="0">
-        <v>0.099692165851593004</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0.13170374929904941</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
+        <v>0.033729434013366699</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.038728371262550403</v>
+      </c>
+      <c r="C9" s="0">
         <v>0.046035692095756503</v>
       </c>
-      <c r="B9" s="0">
+      <c r="D9" s="0">
         <v>0.057055823504924802</v>
       </c>
-      <c r="C9" s="0">
+      <c r="E9" s="0">
         <v>0.038352426141500501</v>
       </c>
-      <c r="D9" s="0">
+      <c r="F9" s="0">
         <v>0.043900080025196103</v>
-      </c>
-      <c r="E9" s="0">
-        <v>0.033729434013366699</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0.038728371262550403</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
+        <v>0.037631433457136203</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0">
         <v>0.0095532452687620995</v>
       </c>
-      <c r="B10" s="0">
+      <c r="D10" s="0">
         <v>0.1673649400472641</v>
       </c>
-      <c r="C10" s="0">
+      <c r="E10" s="0">
         <v>0.084828712046146407</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0">
-        <v>0.037631433457136203</v>
       </c>
       <c r="F10" s="0">
         <v>0</v>
@@ -255,284 +255,284 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
+        <v>0.17364488542079931</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.1029663383960724</v>
+      </c>
+      <c r="C11" s="0">
         <v>0.127987265586853</v>
       </c>
-      <c r="B11" s="0">
+      <c r="D11" s="0">
         <v>0.067590735852718395</v>
       </c>
-      <c r="C11" s="0">
+      <c r="E11" s="0">
         <v>0.17504540085792539</v>
       </c>
-      <c r="D11" s="0">
+      <c r="F11" s="0">
         <v>0.11824943870306021</v>
-      </c>
-      <c r="E11" s="0">
-        <v>0.17364488542079931</v>
-      </c>
-      <c r="F11" s="0">
-        <v>0.1029663383960724</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
+        <v>0.063783794641494806</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.0374918468296528</v>
+      </c>
+      <c r="C12" s="0">
         <v>0.089258164167404203</v>
       </c>
-      <c r="B12" s="0">
+      <c r="D12" s="0">
         <v>0.036918405443429898</v>
       </c>
-      <c r="C12" s="0">
+      <c r="E12" s="0">
         <v>0.063356123864650699</v>
       </c>
-      <c r="D12" s="0">
+      <c r="F12" s="0">
         <v>0.042370557785034201</v>
-      </c>
-      <c r="E12" s="0">
-        <v>0.063783794641494806</v>
-      </c>
-      <c r="F12" s="0">
-        <v>0.0374918468296528</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
+        <v>0.017477329820394499</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.0097207492217422</v>
+      </c>
+      <c r="C13" s="0">
         <v>0.15497869253158569</v>
       </c>
-      <c r="B13" s="0">
+      <c r="D13" s="0">
         <v>0.1412004083395004</v>
       </c>
-      <c r="C13" s="0">
+      <c r="E13" s="0">
         <v>0.0092592593282460993</v>
       </c>
-      <c r="D13" s="0">
+      <c r="F13" s="0">
         <v>0.0163674764335155</v>
-      </c>
-      <c r="E13" s="0">
-        <v>0.017477329820394499</v>
-      </c>
-      <c r="F13" s="0">
-        <v>0.0097207492217422</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1037345007061958</v>
+        <v>0.14201965928077701</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
-        <v>0.1479759365320206</v>
+        <v>0.1037345007061958</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0">
-        <v>0.14201965928077701</v>
+        <v>0.1479759365320206</v>
       </c>
       <c r="F14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.069319948554039001</v>
+        <v>0.0532983988523483</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
-        <v>0.053440123796462999</v>
+        <v>0.069319948554039001</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0">
-        <v>0.0532983988523483</v>
+        <v>0.053440123796462999</v>
       </c>
       <c r="F15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.14548081159591669</v>
+        <v>0.016887186095118498</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
-        <v>0.0122901163995266</v>
+        <v>0.14548081159591669</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0">
-        <v>0.016887186095118498</v>
+        <v>0.0122901163995266</v>
       </c>
       <c r="F16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0">
+        <v>0.12517888844013211</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0.12737710773944849</v>
+      </c>
+      <c r="C17" s="0">
         <v>0.084288805723190294</v>
       </c>
-      <c r="B17" s="0">
+      <c r="D17" s="0">
         <v>0.088526733219623593</v>
       </c>
-      <c r="C17" s="0">
+      <c r="E17" s="0">
         <v>0.134881466627121</v>
       </c>
-      <c r="D17" s="0">
+      <c r="F17" s="0">
         <v>0.14078095555305481</v>
-      </c>
-      <c r="E17" s="0">
-        <v>0.12517888844013211</v>
-      </c>
-      <c r="F17" s="0">
-        <v>0.12737710773944849</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
+        <v>0.045394282788038302</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0.044886264950037003</v>
+      </c>
+      <c r="C18" s="0">
         <v>0.052193060517311103</v>
       </c>
-      <c r="B18" s="0">
+      <c r="D18" s="0">
         <v>0.051233503967523603</v>
       </c>
-      <c r="C18" s="0">
+      <c r="E18" s="0">
         <v>0.050449974834918997</v>
       </c>
-      <c r="D18" s="0">
+      <c r="F18" s="0">
         <v>0.0470926240086555</v>
-      </c>
-      <c r="E18" s="0">
-        <v>0.045394282788038302</v>
-      </c>
-      <c r="F18" s="0">
-        <v>0.044886264950037003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
+        <v>0.010560381226241601</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.0104659013450146</v>
+      </c>
+      <c r="C19" s="0">
         <v>0.13597281277179721</v>
       </c>
-      <c r="B19" s="0">
+      <c r="D19" s="0">
         <v>0.1181400939822197</v>
       </c>
-      <c r="C19" s="0">
+      <c r="E19" s="0">
         <v>0.017799075692892099</v>
       </c>
-      <c r="D19" s="0">
+      <c r="F19" s="0">
         <v>0.0062797013670206001</v>
-      </c>
-      <c r="E19" s="0">
-        <v>0.010560381226241601</v>
-      </c>
-      <c r="F19" s="0">
-        <v>0.0104659013450146</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
+        <v>0.1235839501023293</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.10980309545993799</v>
+      </c>
+      <c r="C20" s="0">
         <v>0.089088521897792802</v>
       </c>
-      <c r="B20" s="0">
+      <c r="D20" s="0">
         <v>0.08082165569067</v>
       </c>
-      <c r="C20" s="0">
+      <c r="E20" s="0">
         <v>0.15277692675590521</v>
       </c>
-      <c r="D20" s="0">
+      <c r="F20" s="0">
         <v>0.12162149697542191</v>
-      </c>
-      <c r="E20" s="0">
-        <v>0.1235839501023293</v>
-      </c>
-      <c r="F20" s="0">
-        <v>0.10980309545993799</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
+        <v>0.1235839501023293</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0.043957620859146097</v>
+      </c>
+      <c r="C21" s="0">
         <v>0.089088521897792802</v>
       </c>
-      <c r="B21" s="0">
+      <c r="D21" s="0">
         <v>0.051078137010335901</v>
       </c>
-      <c r="C21" s="0">
+      <c r="E21" s="0">
         <v>0.15277692675590521</v>
       </c>
-      <c r="D21" s="0">
+      <c r="F21" s="0">
         <v>0.045712232589721701</v>
-      </c>
-      <c r="E21" s="0">
-        <v>0.1235839501023293</v>
-      </c>
-      <c r="F21" s="0">
-        <v>0.043957620859146097</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
+        <v>0.1235839501023293</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.0305662807077169</v>
+      </c>
+      <c r="C22" s="0">
         <v>0.089088521897792802</v>
       </c>
-      <c r="B22" s="0">
+      <c r="D22" s="0">
         <v>0.1503686457872391</v>
       </c>
-      <c r="C22" s="0">
+      <c r="E22" s="0">
         <v>0.15277692675590521</v>
       </c>
-      <c r="D22" s="0">
+      <c r="F22" s="0">
         <v>0.016634367406368301</v>
-      </c>
-      <c r="E22" s="0">
-        <v>0.1235839501023293</v>
-      </c>
-      <c r="F22" s="0">
-        <v>0.0305662807077169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
+        <v>0.1123915687203407</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.12743611633777621</v>
+      </c>
+      <c r="C23" s="0">
         <v>0.091077961027622195</v>
       </c>
-      <c r="B23" s="0">
+      <c r="D23" s="0">
         <v>0.085369579493999495</v>
       </c>
-      <c r="C23" s="0">
+      <c r="E23" s="0">
         <v>0.1362168341875076</v>
       </c>
-      <c r="D23" s="0">
+      <c r="F23" s="0">
         <v>0.13417588174343109</v>
-      </c>
-      <c r="E23" s="0">
-        <v>0.1123915687203407</v>
-      </c>
-      <c r="F23" s="0">
-        <v>0.12743611633777621</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
+        <v>0.057841815054416698</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.044944088906049701</v>
+      </c>
+      <c r="C24" s="0">
         <v>0.052658576518297202</v>
       </c>
-      <c r="B24" s="0">
+      <c r="D24" s="0">
         <v>0.052367225289344801</v>
       </c>
-      <c r="C24" s="0">
+      <c r="E24" s="0">
         <v>0.049387026578187901</v>
       </c>
-      <c r="D24" s="0">
+      <c r="F24" s="0">
         <v>0.052732232958078398</v>
-      </c>
-      <c r="E24" s="0">
-        <v>0.057841815054416698</v>
-      </c>
-      <c r="F24" s="0">
-        <v>0.044944088906049701</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
+        <v>0.0398662537336349</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.0107903182506561</v>
+      </c>
+      <c r="C25" s="0">
         <v>0.11751227825880051</v>
       </c>
-      <c r="B25" s="0">
+      <c r="D25" s="0">
         <v>0.13197025656700129</v>
       </c>
-      <c r="C25" s="0">
+      <c r="E25" s="0">
         <v>0.0097688827663659997</v>
       </c>
-      <c r="D25" s="0">
+      <c r="F25" s="0">
         <v>0.0203650631010532</v>
-      </c>
-      <c r="E25" s="0">
-        <v>0.0398662537336349</v>
-      </c>
-      <c r="F25" s="0">
-        <v>0.0107903182506561</v>
       </c>
     </row>
   </sheetData>

--- a/output/allirr_sens.xlsx
+++ b/output/allirr_sens.xlsx
@@ -55,10 +55,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.086773470044136006</v>
+        <v>0.12636555731296539</v>
       </c>
       <c r="B1" s="0">
-        <v>0.051597706973552697</v>
+        <v>0.045029263943433803</v>
       </c>
       <c r="C1" s="0">
         <v>0.13812857866287229</v>
@@ -67,18 +67,18 @@
         <v>0.048414941877126701</v>
       </c>
       <c r="E1" s="0">
-        <v>0.12636555731296539</v>
+        <v>0.086773470044136006</v>
       </c>
       <c r="F1" s="0">
-        <v>0.045029263943433803</v>
+        <v>0.051597706973552697</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.092296555638313293</v>
+        <v>0.13596199452877039</v>
       </c>
       <c r="B2" s="0">
-        <v>0.087023288011550903</v>
+        <v>0.12247072160243989</v>
       </c>
       <c r="C2" s="0">
         <v>0.1470357030630112</v>
@@ -87,18 +87,18 @@
         <v>0.14765714108943939</v>
       </c>
       <c r="E2" s="0">
-        <v>0.13596199452877039</v>
+        <v>0.092296555638313293</v>
       </c>
       <c r="F2" s="0">
-        <v>0.12247072160243989</v>
+        <v>0.087023288011550903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.059244722127914401</v>
+        <v>0.044072266668081297</v>
       </c>
       <c r="B3" s="0">
-        <v>0.032009117305278799</v>
+        <v>0.039431847631931298</v>
       </c>
       <c r="C3" s="0">
         <v>0.060474451631307602</v>
@@ -107,18 +107,18 @@
         <v>0.037413988262414898</v>
       </c>
       <c r="E3" s="0">
-        <v>0.044072266668081297</v>
+        <v>0.059244722127914401</v>
       </c>
       <c r="F3" s="0">
-        <v>0.039431847631931298</v>
+        <v>0.032009117305278799</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1708621084690094</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.0141893057152629</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
         <v>0.0062043797224760004</v>
@@ -127,18 +127,18 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>0.1708621084690094</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.0141893057152629</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.099347189068794306</v>
+        <v>0.1036057323217392</v>
       </c>
       <c r="B5" s="0">
-        <v>0.097613118588924394</v>
+        <v>0.11451206356287</v>
       </c>
       <c r="C5" s="0">
         <v>0.110483281314373</v>
@@ -147,18 +147,18 @@
         <v>0.12651921808719641</v>
       </c>
       <c r="E5" s="0">
-        <v>0.1036057323217392</v>
+        <v>0.099347189068794306</v>
       </c>
       <c r="F5" s="0">
-        <v>0.11451206356287</v>
+        <v>0.097613118588924394</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.055597618222236599</v>
+        <v>0.044696431607008001</v>
       </c>
       <c r="B6" s="0">
-        <v>0.051612280309200301</v>
+        <v>0.043288793414831203</v>
       </c>
       <c r="C6" s="0">
         <v>0.047116104513406802</v>
@@ -167,18 +167,18 @@
         <v>0.050553500652313198</v>
       </c>
       <c r="E6" s="0">
-        <v>0.044696431607008001</v>
+        <v>0.055597618222236599</v>
       </c>
       <c r="F6" s="0">
-        <v>0.043288793414831203</v>
+        <v>0.051612280309200301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.11696202307939529</v>
+        <v>0.061488322913646698</v>
       </c>
       <c r="B7" s="0">
-        <v>0.094544097781181294</v>
+        <v>0.0149503648281097</v>
       </c>
       <c r="C7" s="0">
         <v>0.055263452231884003</v>
@@ -187,18 +187,18 @@
         <v>0.042956911027431502</v>
       </c>
       <c r="E7" s="0">
-        <v>0.061488322913646698</v>
+        <v>0.11696202307939529</v>
       </c>
       <c r="F7" s="0">
-        <v>0.0149503648281097</v>
+        <v>0.094544097781181294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.13118936121463781</v>
+        <v>0.099692165851593004</v>
       </c>
       <c r="B8" s="0">
-        <v>0.089120998978614793</v>
+        <v>0.13170374929904941</v>
       </c>
       <c r="C8" s="0">
         <v>0.084695793688297299</v>
@@ -207,18 +207,18 @@
         <v>0.1617773920297623</v>
       </c>
       <c r="E8" s="0">
-        <v>0.099692165851593004</v>
+        <v>0.13118936121463781</v>
       </c>
       <c r="F8" s="0">
-        <v>0.13170374929904941</v>
+        <v>0.089120998978614793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.046035692095756503</v>
+        <v>0.033729434013366699</v>
       </c>
       <c r="B9" s="0">
-        <v>0.057055823504924802</v>
+        <v>0.038728371262550403</v>
       </c>
       <c r="C9" s="0">
         <v>0.038352426141500501</v>
@@ -227,18 +227,18 @@
         <v>0.043900080025196103</v>
       </c>
       <c r="E9" s="0">
-        <v>0.033729434013366699</v>
+        <v>0.046035692095756503</v>
       </c>
       <c r="F9" s="0">
-        <v>0.038728371262550403</v>
+        <v>0.057055823504924802</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0095532452687620995</v>
+        <v>0.037631433457136203</v>
       </c>
       <c r="B10" s="0">
-        <v>0.1673649400472641</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
         <v>0.084828712046146407</v>
@@ -247,18 +247,18 @@
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.037631433457136203</v>
+        <v>0.0095532452687620995</v>
       </c>
       <c r="F10" s="0">
-        <v>0</v>
+        <v>0.1673649400472641</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.127987265586853</v>
+        <v>0.17364488542079931</v>
       </c>
       <c r="B11" s="0">
-        <v>0.067590735852718395</v>
+        <v>0.1029663383960724</v>
       </c>
       <c r="C11" s="0">
         <v>0.17504540085792539</v>
@@ -267,18 +267,18 @@
         <v>0.11824943870306021</v>
       </c>
       <c r="E11" s="0">
-        <v>0.17364488542079931</v>
+        <v>0.127987265586853</v>
       </c>
       <c r="F11" s="0">
-        <v>0.1029663383960724</v>
+        <v>0.067590735852718395</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.089258164167404203</v>
+        <v>0.063783794641494806</v>
       </c>
       <c r="B12" s="0">
-        <v>0.036918405443429898</v>
+        <v>0.0374918468296528</v>
       </c>
       <c r="C12" s="0">
         <v>0.063356123864650699</v>
@@ -287,18 +287,18 @@
         <v>0.042370557785034201</v>
       </c>
       <c r="E12" s="0">
-        <v>0.063783794641494806</v>
+        <v>0.089258164167404203</v>
       </c>
       <c r="F12" s="0">
-        <v>0.0374918468296528</v>
+        <v>0.036918405443429898</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.15497869253158569</v>
+        <v>0.017477329820394499</v>
       </c>
       <c r="B13" s="0">
-        <v>0.1412004083395004</v>
+        <v>0.0097207492217422</v>
       </c>
       <c r="C13" s="0">
         <v>0.0092592593282460993</v>
@@ -307,15 +307,15 @@
         <v>0.0163674764335155</v>
       </c>
       <c r="E13" s="0">
-        <v>0.017477329820394499</v>
+        <v>0.15497869253158569</v>
       </c>
       <c r="F13" s="0">
-        <v>0.0097207492217422</v>
+        <v>0.1412004083395004</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1037345007061958</v>
+        <v>0.14201965928077701</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -323,13 +323,13 @@
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0">
-        <v>0.14201965928077701</v>
+        <v>0.1037345007061958</v>
       </c>
       <c r="F14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.069319948554039001</v>
+        <v>0.0532983988523483</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -337,13 +337,13 @@
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0">
-        <v>0.0532983988523483</v>
+        <v>0.069319948554039001</v>
       </c>
       <c r="F15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.14548081159591669</v>
+        <v>0.016887186095118498</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -351,16 +351,16 @@
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0">
-        <v>0.016887186095118498</v>
+        <v>0.14548081159591669</v>
       </c>
       <c r="F16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.084288805723190294</v>
+        <v>0.12517888844013211</v>
       </c>
       <c r="B17" s="0">
-        <v>0.088526733219623593</v>
+        <v>0.12737710773944849</v>
       </c>
       <c r="C17" s="0">
         <v>0.134881466627121</v>
@@ -369,18 +369,18 @@
         <v>0.14078095555305481</v>
       </c>
       <c r="E17" s="0">
-        <v>0.12517888844013211</v>
+        <v>0.084288805723190294</v>
       </c>
       <c r="F17" s="0">
-        <v>0.12737710773944849</v>
+        <v>0.088526733219623593</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.052193060517311103</v>
+        <v>0.045394282788038302</v>
       </c>
       <c r="B18" s="0">
-        <v>0.051233503967523603</v>
+        <v>0.044886264950037003</v>
       </c>
       <c r="C18" s="0">
         <v>0.050449974834918997</v>
@@ -389,18 +389,18 @@
         <v>0.0470926240086555</v>
       </c>
       <c r="E18" s="0">
-        <v>0.045394282788038302</v>
+        <v>0.052193060517311103</v>
       </c>
       <c r="F18" s="0">
-        <v>0.044886264950037003</v>
+        <v>0.051233503967523603</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.13597281277179721</v>
+        <v>0.010560381226241601</v>
       </c>
       <c r="B19" s="0">
-        <v>0.1181400939822197</v>
+        <v>0.0104659013450146</v>
       </c>
       <c r="C19" s="0">
         <v>0.017799075692892099</v>
@@ -409,18 +409,18 @@
         <v>0.0062797013670206001</v>
       </c>
       <c r="E19" s="0">
-        <v>0.010560381226241601</v>
+        <v>0.13597281277179721</v>
       </c>
       <c r="F19" s="0">
-        <v>0.0104659013450146</v>
+        <v>0.1181400939822197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.089088521897792802</v>
+        <v>0.1235839501023293</v>
       </c>
       <c r="B20" s="0">
-        <v>0.08082165569067</v>
+        <v>0.10980309545993799</v>
       </c>
       <c r="C20" s="0">
         <v>0.15277692675590521</v>
@@ -429,18 +429,18 @@
         <v>0.12162149697542191</v>
       </c>
       <c r="E20" s="0">
-        <v>0.1235839501023293</v>
+        <v>0.089088521897792802</v>
       </c>
       <c r="F20" s="0">
-        <v>0.10980309545993799</v>
+        <v>0.08082165569067</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.089088521897792802</v>
+        <v>0.1235839501023293</v>
       </c>
       <c r="B21" s="0">
-        <v>0.051078137010335901</v>
+        <v>0.043957620859146097</v>
       </c>
       <c r="C21" s="0">
         <v>0.15277692675590521</v>
@@ -449,18 +449,18 @@
         <v>0.045712232589721701</v>
       </c>
       <c r="E21" s="0">
-        <v>0.1235839501023293</v>
+        <v>0.089088521897792802</v>
       </c>
       <c r="F21" s="0">
-        <v>0.043957620859146097</v>
+        <v>0.051078137010335901</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.089088521897792802</v>
+        <v>0.1235839501023293</v>
       </c>
       <c r="B22" s="0">
-        <v>0.1503686457872391</v>
+        <v>0.0305662807077169</v>
       </c>
       <c r="C22" s="0">
         <v>0.15277692675590521</v>
@@ -469,18 +469,18 @@
         <v>0.016634367406368301</v>
       </c>
       <c r="E22" s="0">
-        <v>0.1235839501023293</v>
+        <v>0.089088521897792802</v>
       </c>
       <c r="F22" s="0">
-        <v>0.0305662807077169</v>
+        <v>0.1503686457872391</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.091077961027622195</v>
+        <v>0.1123915687203407</v>
       </c>
       <c r="B23" s="0">
-        <v>0.085369579493999495</v>
+        <v>0.12743611633777621</v>
       </c>
       <c r="C23" s="0">
         <v>0.1362168341875076</v>
@@ -489,18 +489,18 @@
         <v>0.13417588174343109</v>
       </c>
       <c r="E23" s="0">
-        <v>0.1123915687203407</v>
+        <v>0.091077961027622195</v>
       </c>
       <c r="F23" s="0">
-        <v>0.12743611633777621</v>
+        <v>0.085369579493999495</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.052658576518297202</v>
+        <v>0.057841815054416698</v>
       </c>
       <c r="B24" s="0">
-        <v>0.052367225289344801</v>
+        <v>0.044944088906049701</v>
       </c>
       <c r="C24" s="0">
         <v>0.049387026578187901</v>
@@ -509,18 +509,18 @@
         <v>0.052732232958078398</v>
       </c>
       <c r="E24" s="0">
-        <v>0.057841815054416698</v>
+        <v>0.052658576518297202</v>
       </c>
       <c r="F24" s="0">
-        <v>0.044944088906049701</v>
+        <v>0.052367225289344801</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.11751227825880051</v>
+        <v>0.0398662537336349</v>
       </c>
       <c r="B25" s="0">
-        <v>0.13197025656700129</v>
+        <v>0.0107903182506561</v>
       </c>
       <c r="C25" s="0">
         <v>0.0097688827663659997</v>
@@ -529,10 +529,10 @@
         <v>0.0203650631010532</v>
       </c>
       <c r="E25" s="0">
-        <v>0.0398662537336349</v>
+        <v>0.11751227825880051</v>
       </c>
       <c r="F25" s="0">
-        <v>0.0107903182506561</v>
+        <v>0.13197025656700129</v>
       </c>
     </row>
   </sheetData>

--- a/output/allirr_sens.xlsx
+++ b/output/allirr_sens.xlsx
@@ -437,19 +437,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1235839501023293</v>
+        <v>0.044496078044176102</v>
       </c>
       <c r="B21" s="0">
         <v>0.043957620859146097</v>
       </c>
       <c r="C21" s="0">
-        <v>0.15277692675590521</v>
+        <v>0.043159361928701401</v>
       </c>
       <c r="D21" s="0">
         <v>0.045712232589721701</v>
       </c>
       <c r="E21" s="0">
-        <v>0.089088521897792802</v>
+        <v>0.051596552133560201</v>
       </c>
       <c r="F21" s="0">
         <v>0.051078137010335901</v>
@@ -457,19 +457,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1235839501023293</v>
+        <v>0.026284949854016301</v>
       </c>
       <c r="B22" s="0">
         <v>0.0305662807077169</v>
       </c>
       <c r="C22" s="0">
-        <v>0.15277692675590521</v>
+        <v>0</v>
       </c>
       <c r="D22" s="0">
         <v>0.016634367406368301</v>
       </c>
       <c r="E22" s="0">
-        <v>0.089088521897792802</v>
+        <v>0.1078990250825882</v>
       </c>
       <c r="F22" s="0">
         <v>0.1503686457872391</v>

--- a/output/allirr_sens.xlsx
+++ b/output/allirr_sens.xlsx
@@ -55,484 +55,502 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.12636555731296539</v>
+        <v>0.13302223384380341</v>
       </c>
       <c r="B1" s="0">
-        <v>0.045029263943433803</v>
+        <v>0.047647591680288301</v>
       </c>
       <c r="C1" s="0">
-        <v>0.13812857866287229</v>
+        <v>0.14060832560062411</v>
       </c>
       <c r="D1" s="0">
-        <v>0.048414941877126701</v>
+        <v>0.049456320703029598</v>
       </c>
       <c r="E1" s="0">
-        <v>0.086773470044136006</v>
+        <v>0.097065553069114699</v>
       </c>
       <c r="F1" s="0">
-        <v>0.051597706973552697</v>
+        <v>0.067880421876907293</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.13596199452877039</v>
+        <v>0.14392158389091489</v>
       </c>
       <c r="B2" s="0">
-        <v>0.12247072160243989</v>
+        <v>0.1246937960386276</v>
       </c>
       <c r="C2" s="0">
-        <v>0.1470357030630112</v>
+        <v>0.14952495694160459</v>
       </c>
       <c r="D2" s="0">
-        <v>0.14765714108943939</v>
+        <v>0.1449483186006546</v>
       </c>
       <c r="E2" s="0">
-        <v>0.092296555638313293</v>
+        <v>0.1019496098160744</v>
       </c>
       <c r="F2" s="0">
-        <v>0.087023288011550903</v>
+        <v>0.093698821961879702</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.044072266668081297</v>
+        <v>0.049212045967578902</v>
       </c>
       <c r="B3" s="0">
-        <v>0.039431847631931298</v>
+        <v>0.043058339506387697</v>
       </c>
       <c r="C3" s="0">
-        <v>0.060474451631307602</v>
+        <v>0.061874717473983799</v>
       </c>
       <c r="D3" s="0">
-        <v>0.037413988262414898</v>
+        <v>0.037511836737394298</v>
       </c>
       <c r="E3" s="0">
-        <v>0.059244722127914401</v>
+        <v>0.072320476174354595</v>
       </c>
       <c r="F3" s="0">
-        <v>0.032009117305278799</v>
+        <v>0.037646863609552397</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0</v>
+        <v>0.0053661069832741997</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.00050838838797060001</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0062043797224760004</v>
+        <v>0.0060739922337234003</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.1708621084690094</v>
+        <v>0.14783002436161041</v>
       </c>
       <c r="F4" s="0">
-        <v>0.0141893057152629</v>
+        <v>0.037228357046842603</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1036057323217392</v>
+        <v>0.10547070205211639</v>
       </c>
       <c r="B5" s="0">
-        <v>0.11451206356287</v>
+        <v>0.1102750822901726</v>
       </c>
       <c r="C5" s="0">
-        <v>0.110483281314373</v>
+        <v>0.1319157928228378</v>
       </c>
       <c r="D5" s="0">
-        <v>0.12651921808719641</v>
+        <v>0.13359728455543521</v>
       </c>
       <c r="E5" s="0">
-        <v>0.099347189068794306</v>
+        <v>0.11957186460495001</v>
       </c>
       <c r="F5" s="0">
-        <v>0.097613118588924394</v>
+        <v>0.11891556531190869</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.044696431607008001</v>
+        <v>0.050295013934373897</v>
       </c>
       <c r="B6" s="0">
-        <v>0.043288793414831203</v>
+        <v>0.045873951166868203</v>
       </c>
       <c r="C6" s="0">
-        <v>0.047116104513406802</v>
+        <v>0.049257107079029097</v>
       </c>
       <c r="D6" s="0">
-        <v>0.050553500652313198</v>
+        <v>0.051094088703393901</v>
       </c>
       <c r="E6" s="0">
-        <v>0.055597618222236599</v>
+        <v>0.073250092566013295</v>
       </c>
       <c r="F6" s="0">
-        <v>0.051612280309200301</v>
+        <v>0.070999443531036405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.061488322913646698</v>
+        <v>0.065109066665172605</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0149503648281097</v>
+        <v>0.035985473543405498</v>
       </c>
       <c r="C7" s="0">
-        <v>0.055263452231884003</v>
+        <v>0.0326050408184528</v>
       </c>
       <c r="D7" s="0">
-        <v>0.042956911027431502</v>
+        <v>0.027066040784120601</v>
       </c>
       <c r="E7" s="0">
-        <v>0.11696202307939529</v>
+        <v>0.11521197110414511</v>
       </c>
       <c r="F7" s="0">
-        <v>0.094544097781181294</v>
+        <v>0.1039237827062607</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.099692165851593004</v>
+        <v>0.1007531210780144</v>
       </c>
       <c r="B8" s="0">
-        <v>0.13170374929904941</v>
+        <v>0.13638050854206091</v>
       </c>
       <c r="C8" s="0">
-        <v>0.084695793688297299</v>
+        <v>0.085443757474422496</v>
       </c>
       <c r="D8" s="0">
-        <v>0.1617773920297623</v>
+        <v>0.1698504835367203</v>
       </c>
       <c r="E8" s="0">
-        <v>0.13118936121463781</v>
+        <v>0.14515417814254761</v>
       </c>
       <c r="F8" s="0">
-        <v>0.089120998978614793</v>
+        <v>0.098408304154872894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.033729434013366699</v>
+        <v>0.0338085144758224</v>
       </c>
       <c r="B9" s="0">
-        <v>0.038728371262550403</v>
+        <v>0.041034996509552002</v>
       </c>
       <c r="C9" s="0">
-        <v>0.038352426141500501</v>
+        <v>0.044220607727766002</v>
       </c>
       <c r="D9" s="0">
-        <v>0.043900080025196103</v>
+        <v>0.048795033246278798</v>
       </c>
       <c r="E9" s="0">
-        <v>0.046035692095756503</v>
+        <v>0.067877911031246199</v>
       </c>
       <c r="F9" s="0">
-        <v>0.057055823504924802</v>
+        <v>0.0697471648454666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.037631433457136203</v>
+        <v>0.0136948404833674</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>0.084828712046146407</v>
+        <v>0.073748104274272905</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0095532452687620995</v>
+        <v>0.088641867041587802</v>
       </c>
       <c r="F10" s="0">
-        <v>0.1673649400472641</v>
+        <v>0.18085105717182159</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.17364488542079931</v>
+        <v>0.19308607280254361</v>
       </c>
       <c r="B11" s="0">
-        <v>0.1029663383960724</v>
+        <v>0.1062419563531876</v>
       </c>
       <c r="C11" s="0">
-        <v>0.17504540085792539</v>
+        <v>0.18554538488388059</v>
       </c>
       <c r="D11" s="0">
-        <v>0.11824943870306021</v>
+        <v>0.11940906941890719</v>
       </c>
       <c r="E11" s="0">
-        <v>0.127987265586853</v>
+        <v>0.15692463517189029</v>
       </c>
       <c r="F11" s="0">
-        <v>0.067590735852718395</v>
+        <v>0.071364410221576705</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.063783794641494806</v>
+        <v>0.079349823296070099</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0374918468296528</v>
+        <v>0.038187570869922603</v>
       </c>
       <c r="C12" s="0">
-        <v>0.063356123864650699</v>
+        <v>0.071061119437217699</v>
       </c>
       <c r="D12" s="0">
-        <v>0.042370557785034201</v>
+        <v>0.042445484548807103</v>
       </c>
       <c r="E12" s="0">
-        <v>0.089258164167404203</v>
+        <v>0.13908906280994421</v>
       </c>
       <c r="F12" s="0">
-        <v>0.036918405443429898</v>
+        <v>0.0422767922282219</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.017477329820394499</v>
+        <v>0.035374604165553998</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0097207492217422</v>
+        <v>0.013523131608963001</v>
       </c>
       <c r="C13" s="0">
-        <v>0.0092592593282460993</v>
+        <v>0.0052694203332067004</v>
       </c>
       <c r="D13" s="0">
-        <v>0.0163674764335155</v>
+        <v>0.0102401133626699</v>
       </c>
       <c r="E13" s="0">
-        <v>0.15497869253158569</v>
+        <v>0.16727052628993991</v>
       </c>
       <c r="F13" s="0">
-        <v>0.1412004083395004</v>
+        <v>0.14497160911560061</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.14201965928077701</v>
-      </c>
-      <c r="B14" s="0"/>
+        <v>0.15349952876567841</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.14100527763366699</v>
+      </c>
       <c r="C14" s="0">
-        <v>0.1479759365320206</v>
-      </c>
-      <c r="D14" s="0"/>
+        <v>0.1539921760559082</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.14100527763366699</v>
+      </c>
       <c r="E14" s="0">
-        <v>0.1037345007061958</v>
-      </c>
-      <c r="F14" s="0"/>
+        <v>0.1253298074007034</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.1205568090081215</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0532983988523483</v>
-      </c>
-      <c r="B15" s="0"/>
+        <v>0.0599559657275677</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.065149910748004899</v>
+      </c>
       <c r="C15" s="0">
-        <v>0.053440123796462999</v>
-      </c>
-      <c r="D15" s="0"/>
+        <v>0.056393433362245601</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.065149910748004899</v>
+      </c>
       <c r="E15" s="0">
-        <v>0.069319948554039001</v>
-      </c>
-      <c r="F15" s="0"/>
+        <v>0.1077556610107422</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.1095399037003517</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.016887186095118498</v>
-      </c>
-      <c r="B16" s="0"/>
+        <v>0.036308892071247101</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.0056838365271688002</v>
+      </c>
       <c r="C16" s="0">
-        <v>0.0122901163995266</v>
-      </c>
-      <c r="D16" s="0"/>
+        <v>0.0047302031889558003</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.0056838365271688002</v>
+      </c>
       <c r="E16" s="0">
-        <v>0.14548081159591669</v>
-      </c>
-      <c r="F16" s="0"/>
+        <v>0.1442838907241821</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.082424774765968295</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.12517888844013211</v>
+        <v>0.13168647885322571</v>
       </c>
       <c r="B17" s="0">
-        <v>0.12737710773944849</v>
+        <v>0.1339862793684006</v>
       </c>
       <c r="C17" s="0">
-        <v>0.134881466627121</v>
+        <v>0.13710702955722809</v>
       </c>
       <c r="D17" s="0">
-        <v>0.14078095555305481</v>
+        <v>0.14377665519714361</v>
       </c>
       <c r="E17" s="0">
-        <v>0.084288805723190294</v>
+        <v>0.094942592084407806</v>
       </c>
       <c r="F17" s="0">
-        <v>0.088526733219623593</v>
+        <v>0.098427675664424896</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.045394282788038302</v>
+        <v>0.048258375376462902</v>
       </c>
       <c r="B18" s="0">
-        <v>0.044886264950037003</v>
+        <v>0.047393243759870501</v>
       </c>
       <c r="C18" s="0">
-        <v>0.050449974834918997</v>
+        <v>0.051558583974838298</v>
       </c>
       <c r="D18" s="0">
-        <v>0.0470926240086555</v>
+        <v>0.047765433788299602</v>
       </c>
       <c r="E18" s="0">
-        <v>0.052193060517311103</v>
+        <v>0.069056585431098896</v>
       </c>
       <c r="F18" s="0">
-        <v>0.051233503967523603</v>
+        <v>0.066952213644981398</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.010560381226241601</v>
+        <v>0.0122625213116407</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0104659013450146</v>
+        <v>0.0112917022779584</v>
       </c>
       <c r="C19" s="0">
-        <v>0.017799075692892099</v>
+        <v>0.014137931168079401</v>
       </c>
       <c r="D19" s="0">
-        <v>0.0062797013670206001</v>
+        <v>0.00017235435370819999</v>
       </c>
       <c r="E19" s="0">
-        <v>0.13597281277179721</v>
+        <v>0.15483871102333069</v>
       </c>
       <c r="F19" s="0">
-        <v>0.1181400939822197</v>
+        <v>0.14025245606899259</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1235839501023293</v>
+        <v>0.12948976457118991</v>
       </c>
       <c r="B20" s="0">
-        <v>0.10980309545993799</v>
+        <v>0.11620908230543139</v>
       </c>
       <c r="C20" s="0">
-        <v>0.15277692675590521</v>
+        <v>0.15528413653373721</v>
       </c>
       <c r="D20" s="0">
-        <v>0.12162149697542191</v>
+        <v>0.124327152967453</v>
       </c>
       <c r="E20" s="0">
-        <v>0.089088521897792802</v>
+        <v>0.099976979196071597</v>
       </c>
       <c r="F20" s="0">
-        <v>0.08082165569067</v>
+        <v>0.090704128146171598</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.044496078044176102</v>
+        <v>0.047751720994710901</v>
       </c>
       <c r="B21" s="0">
-        <v>0.043957620859146097</v>
+        <v>0.046856429427862202</v>
       </c>
       <c r="C21" s="0">
-        <v>0.043159361928701401</v>
+        <v>0.047126375138759599</v>
       </c>
       <c r="D21" s="0">
-        <v>0.045712232589721701</v>
+        <v>0.047948215156793601</v>
       </c>
       <c r="E21" s="0">
-        <v>0.051596552133560201</v>
+        <v>0.068322367966175093</v>
       </c>
       <c r="F21" s="0">
-        <v>0.051078137010335901</v>
+        <v>0.067467145621776595</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.026284949854016301</v>
+        <v>0.021319456398487101</v>
       </c>
       <c r="B22" s="0">
-        <v>0.0305662807077169</v>
+        <v>0.037999350577592801</v>
       </c>
       <c r="C22" s="0">
         <v>0</v>
       </c>
       <c r="D22" s="0">
-        <v>0.016634367406368301</v>
+        <v>0.0140156457200646</v>
       </c>
       <c r="E22" s="0">
-        <v>0.1078990250825882</v>
+        <v>0.13304366171360019</v>
       </c>
       <c r="F22" s="0">
-        <v>0.1503686457872391</v>
+        <v>0.1505334675312042</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1123915687203407</v>
+        <v>0.1170142889022827</v>
       </c>
       <c r="B23" s="0">
-        <v>0.12743611633777621</v>
+        <v>0.13363407552242279</v>
       </c>
       <c r="C23" s="0">
-        <v>0.1362168341875076</v>
+        <v>0.14100456237792969</v>
       </c>
       <c r="D23" s="0">
-        <v>0.13417588174343109</v>
+        <v>0.13608600199222559</v>
       </c>
       <c r="E23" s="0">
-        <v>0.091077961027622195</v>
+        <v>0.1029829829931259</v>
       </c>
       <c r="F23" s="0">
-        <v>0.085369579493999495</v>
+        <v>0.095876179635524694</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.057841815054416698</v>
+        <v>0.059852175414562198</v>
       </c>
       <c r="B24" s="0">
-        <v>0.044944088906049701</v>
+        <v>0.048070378601551098</v>
       </c>
       <c r="C24" s="0">
-        <v>0.049387026578187901</v>
+        <v>0.050054047256708097</v>
       </c>
       <c r="D24" s="0">
-        <v>0.052732232958078398</v>
+        <v>0.053816281259059899</v>
       </c>
       <c r="E24" s="0">
-        <v>0.052658576518297202</v>
+        <v>0.069531127810478197</v>
       </c>
       <c r="F24" s="0">
-        <v>0.052367225289344801</v>
+        <v>0.069162450730800601</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0398662537336349</v>
+        <v>0.040326695889234501</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0107903182506561</v>
+        <v>0.012635909952223299</v>
       </c>
       <c r="C25" s="0">
-        <v>0.0097688827663659997</v>
+        <v>0.015195368789136399</v>
       </c>
       <c r="D25" s="0">
-        <v>0.0203650631010532</v>
+        <v>0.012987012974917901</v>
       </c>
       <c r="E25" s="0">
-        <v>0.11751227825880051</v>
+        <v>0.13736620545387271</v>
       </c>
       <c r="F25" s="0">
-        <v>0.13197025656700129</v>
+        <v>0.15367783606052399</v>
       </c>
     </row>
   </sheetData>

--- a/output/allirr_sens.xlsx
+++ b/output/allirr_sens.xlsx
@@ -55,502 +55,502 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.13302223384380341</v>
+        <v>0.12003393471241</v>
       </c>
       <c r="B1" s="0">
-        <v>0.047647591680288301</v>
+        <v>0.052585378289222703</v>
       </c>
       <c r="C1" s="0">
-        <v>0.14060832560062411</v>
+        <v>0.1404354274272919</v>
       </c>
       <c r="D1" s="0">
-        <v>0.049456320703029598</v>
+        <v>0.058707192540168797</v>
       </c>
       <c r="E1" s="0">
-        <v>0.097065553069114699</v>
+        <v>0.10028420388698581</v>
       </c>
       <c r="F1" s="0">
-        <v>0.067880421876907293</v>
+        <v>0.070537604391574901</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.14392158389091489</v>
+        <v>0.12984518706798551</v>
       </c>
       <c r="B2" s="0">
-        <v>0.1246937960386276</v>
+        <v>0.1168612465262413</v>
       </c>
       <c r="C2" s="0">
-        <v>0.14952495694160459</v>
+        <v>0.1466829776763916</v>
       </c>
       <c r="D2" s="0">
-        <v>0.1449483186006546</v>
+        <v>0.14239673316478729</v>
       </c>
       <c r="E2" s="0">
-        <v>0.1019496098160744</v>
+        <v>0.1104363948106766</v>
       </c>
       <c r="F2" s="0">
-        <v>0.093698821961879702</v>
+        <v>0.089451350271701799</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.049212045967578902</v>
+        <v>0.053912065923214</v>
       </c>
       <c r="B3" s="0">
-        <v>0.043058339506387697</v>
+        <v>0.044247906655073201</v>
       </c>
       <c r="C3" s="0">
-        <v>0.061874717473983799</v>
+        <v>0.070638008415699005</v>
       </c>
       <c r="D3" s="0">
-        <v>0.037511836737394298</v>
+        <v>0.050938736647367498</v>
       </c>
       <c r="E3" s="0">
-        <v>0.072320476174354595</v>
+        <v>0.073521234095096602</v>
       </c>
       <c r="F3" s="0">
-        <v>0.037646863609552397</v>
+        <v>0.043179519474506399</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0053661069832741997</v>
+        <v>0.0062591279856861002</v>
       </c>
       <c r="B4" s="0">
-        <v>0.00050838838797060001</v>
+        <v>0.0080450521782040995</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0060739922337234003</v>
+        <v>0.0042105261236428998</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.14783002436161041</v>
+        <v>0.14508241415023801</v>
       </c>
       <c r="F4" s="0">
-        <v>0.037228357046842603</v>
+        <v>0.082923136651516002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.10547070205211639</v>
+        <v>0.1051067933440208</v>
       </c>
       <c r="B5" s="0">
-        <v>0.1102750822901726</v>
+        <v>0.1134975627064705</v>
       </c>
       <c r="C5" s="0">
-        <v>0.1319157928228378</v>
+        <v>0.12710963189601901</v>
       </c>
       <c r="D5" s="0">
-        <v>0.13359728455543521</v>
+        <v>0.13425211608409879</v>
       </c>
       <c r="E5" s="0">
-        <v>0.11957186460495001</v>
+        <v>0.1149406805634499</v>
       </c>
       <c r="F5" s="0">
-        <v>0.11891556531190869</v>
+        <v>0.1148766502737999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.050295013934373897</v>
+        <v>0.048831760883331299</v>
       </c>
       <c r="B6" s="0">
-        <v>0.045873951166868203</v>
+        <v>0.043954648077487897</v>
       </c>
       <c r="C6" s="0">
-        <v>0.049257107079029097</v>
+        <v>0.046358942985534703</v>
       </c>
       <c r="D6" s="0">
-        <v>0.051094088703393901</v>
+        <v>0.050078492611646701</v>
       </c>
       <c r="E6" s="0">
-        <v>0.073250092566013295</v>
+        <v>0.080718755722045898</v>
       </c>
       <c r="F6" s="0">
-        <v>0.070999443531036405</v>
+        <v>0.071834608912467998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.065109066665172605</v>
+        <v>0.060093794018030201</v>
       </c>
       <c r="B7" s="0">
-        <v>0.035985473543405498</v>
+        <v>0.016389433294534701</v>
       </c>
       <c r="C7" s="0">
-        <v>0.0326050408184528</v>
+        <v>0.027556911110878001</v>
       </c>
       <c r="D7" s="0">
-        <v>0.027066040784120601</v>
+        <v>0.0018274376634508001</v>
       </c>
       <c r="E7" s="0">
-        <v>0.11521197110414511</v>
+        <v>0.1257029473781586</v>
       </c>
       <c r="F7" s="0">
-        <v>0.1039237827062607</v>
+        <v>0.11181199550628659</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1007531210780144</v>
+        <v>0.087204426527023302</v>
       </c>
       <c r="B8" s="0">
-        <v>0.13638050854206091</v>
+        <v>0.1383313983678818</v>
       </c>
       <c r="C8" s="0">
-        <v>0.085443757474422496</v>
+        <v>0.069800212979316698</v>
       </c>
       <c r="D8" s="0">
-        <v>0.1698504835367203</v>
+        <v>0.15980219841003421</v>
       </c>
       <c r="E8" s="0">
-        <v>0.14515417814254761</v>
+        <v>0.1292542964220047</v>
       </c>
       <c r="F8" s="0">
-        <v>0.098408304154872894</v>
+        <v>0.095379374921321897</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0338085144758224</v>
+        <v>0.043424513190984698</v>
       </c>
       <c r="B9" s="0">
-        <v>0.041034996509552002</v>
+        <v>0.049792926758527797</v>
       </c>
       <c r="C9" s="0">
-        <v>0.044220607727766002</v>
+        <v>0.0465953722596169</v>
       </c>
       <c r="D9" s="0">
-        <v>0.048795033246278798</v>
+        <v>0.061148189008235897</v>
       </c>
       <c r="E9" s="0">
-        <v>0.067877911031246199</v>
+        <v>0.072941102087497697</v>
       </c>
       <c r="F9" s="0">
-        <v>0.0697471648454666</v>
+        <v>0.078975230455398601</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0136948404833674</v>
+        <v>0.0632022470235825</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>0.073748104274272905</v>
+        <v>0.17038747668266299</v>
       </c>
       <c r="D10" s="0">
-        <v>0</v>
+        <v>0.0054617677815258997</v>
       </c>
       <c r="E10" s="0">
-        <v>0.088641867041587802</v>
+        <v>0.078903190791606903</v>
       </c>
       <c r="F10" s="0">
-        <v>0.18085105717182159</v>
+        <v>0.20537300407886511</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.19308607280254361</v>
+        <v>0.17697668075561521</v>
       </c>
       <c r="B11" s="0">
-        <v>0.1062419563531876</v>
+        <v>0.0942516028881073</v>
       </c>
       <c r="C11" s="0">
-        <v>0.18554538488388059</v>
+        <v>0.18683937191963201</v>
       </c>
       <c r="D11" s="0">
-        <v>0.11940906941890719</v>
+        <v>0.1163068860769272</v>
       </c>
       <c r="E11" s="0">
-        <v>0.15692463517189029</v>
+        <v>0.16677649319171911</v>
       </c>
       <c r="F11" s="0">
-        <v>0.071364410221576705</v>
+        <v>0.073025815188884693</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.079349823296070099</v>
+        <v>0.078031159937381703</v>
       </c>
       <c r="B12" s="0">
-        <v>0.038187570869922603</v>
+        <v>0.044633042067289401</v>
       </c>
       <c r="C12" s="0">
-        <v>0.071061119437217699</v>
+        <v>0.078004918992519406</v>
       </c>
       <c r="D12" s="0">
-        <v>0.042445484548807103</v>
+        <v>0.053395442664623302</v>
       </c>
       <c r="E12" s="0">
-        <v>0.13908906280994421</v>
+        <v>0.16063058376312259</v>
       </c>
       <c r="F12" s="0">
-        <v>0.0422767922282219</v>
+        <v>0.045650307089090299</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.035374604165553998</v>
+        <v>0.0297918953001499</v>
       </c>
       <c r="B13" s="0">
-        <v>0.013523131608963001</v>
+        <v>0.033272095024585703</v>
       </c>
       <c r="C13" s="0">
-        <v>0.0052694203332067004</v>
+        <v>0.0089183626696467001</v>
       </c>
       <c r="D13" s="0">
-        <v>0.0102401133626699</v>
+        <v>0.0013239188119769001</v>
       </c>
       <c r="E13" s="0">
-        <v>0.16727052628993991</v>
+        <v>0.1233319863677025</v>
       </c>
       <c r="F13" s="0">
-        <v>0.14497160911560061</v>
+        <v>0.16058781743049619</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.15349952876567841</v>
+        <v>0.13786447048187259</v>
       </c>
       <c r="B14" s="0">
-        <v>0.14100527763366699</v>
+        <v>0.12767274677753451</v>
       </c>
       <c r="C14" s="0">
-        <v>0.1539921760559082</v>
+        <v>0.15172260999679571</v>
       </c>
       <c r="D14" s="0">
-        <v>0.14100527763366699</v>
+        <v>0.12767274677753451</v>
       </c>
       <c r="E14" s="0">
-        <v>0.1253298074007034</v>
+        <v>0.13311466574668879</v>
       </c>
       <c r="F14" s="0">
-        <v>0.1205568090081215</v>
+        <v>0.124846026301384</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0599559657275677</v>
+        <v>0.063662327826023102</v>
       </c>
       <c r="B15" s="0">
-        <v>0.065149910748004899</v>
+        <v>0.071890488266944899</v>
       </c>
       <c r="C15" s="0">
-        <v>0.056393433362245601</v>
+        <v>0.066075578331947299</v>
       </c>
       <c r="D15" s="0">
-        <v>0.065149910748004899</v>
+        <v>0.071890488266944899</v>
       </c>
       <c r="E15" s="0">
-        <v>0.1077556610107422</v>
+        <v>0.1136068105697632</v>
       </c>
       <c r="F15" s="0">
-        <v>0.1095399037003517</v>
+        <v>0.1089143380522728</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.036308892071247101</v>
+        <v>0.044401954859495198</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0056838365271688002</v>
+        <v>0.0045035383664072002</v>
       </c>
       <c r="C16" s="0">
-        <v>0.0047302031889558003</v>
+        <v>0.0170842818915844</v>
       </c>
       <c r="D16" s="0">
-        <v>0.0056838365271688002</v>
+        <v>0.0045035383664072002</v>
       </c>
       <c r="E16" s="0">
-        <v>0.1442838907241821</v>
+        <v>0.1339703947305679</v>
       </c>
       <c r="F16" s="0">
-        <v>0.082424774765968295</v>
+        <v>0.088910505175590501</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.13168647885322571</v>
+        <v>0.11819193512201311</v>
       </c>
       <c r="B17" s="0">
-        <v>0.1339862793684006</v>
+        <v>0.1216966286301613</v>
       </c>
       <c r="C17" s="0">
-        <v>0.13710702955722809</v>
+        <v>0.1361908167600632</v>
       </c>
       <c r="D17" s="0">
-        <v>0.14377665519714361</v>
+        <v>0.14399941265583041</v>
       </c>
       <c r="E17" s="0">
-        <v>0.094942592084407806</v>
+        <v>0.098341725766658797</v>
       </c>
       <c r="F17" s="0">
-        <v>0.098427675664424896</v>
+        <v>0.1021450683474541</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.048258375376462902</v>
+        <v>0.053218524903058999</v>
       </c>
       <c r="B18" s="0">
-        <v>0.047393243759870501</v>
+        <v>0.051956687122583403</v>
       </c>
       <c r="C18" s="0">
-        <v>0.051558583974838298</v>
+        <v>0.061122603714466102</v>
       </c>
       <c r="D18" s="0">
-        <v>0.047765433788299602</v>
+        <v>0.056701641529798501</v>
       </c>
       <c r="E18" s="0">
-        <v>0.069056585431098896</v>
+        <v>0.070945613086223602</v>
       </c>
       <c r="F18" s="0">
-        <v>0.066952213644981398</v>
+        <v>0.069775842130184201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0122625213116407</v>
+        <v>0.022983701899647699</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0112917022779584</v>
+        <v>0.0092729190364480001</v>
       </c>
       <c r="C19" s="0">
-        <v>0.014137931168079401</v>
+        <v>0.0077777779661119002</v>
       </c>
       <c r="D19" s="0">
-        <v>0.00017235435370819999</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0">
-        <v>0.15483871102333069</v>
+        <v>0.15419875085353851</v>
       </c>
       <c r="F19" s="0">
-        <v>0.14025245606899259</v>
+        <v>0.13355530798435211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.12948976457118991</v>
+        <v>0.1162818297743797</v>
       </c>
       <c r="B20" s="0">
-        <v>0.11620908230543139</v>
+        <v>0.1013292521238327</v>
       </c>
       <c r="C20" s="0">
-        <v>0.15528413653373721</v>
+        <v>0.14480291306972501</v>
       </c>
       <c r="D20" s="0">
-        <v>0.124327152967453</v>
+        <v>0.1212511509656906</v>
       </c>
       <c r="E20" s="0">
-        <v>0.099976979196071597</v>
+        <v>0.1034600213170052</v>
       </c>
       <c r="F20" s="0">
-        <v>0.090704128146171598</v>
+        <v>0.093862444162368802</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.047751720994710901</v>
+        <v>0.054204169660806698</v>
       </c>
       <c r="B21" s="0">
-        <v>0.046856429427862202</v>
+        <v>0.051389746367931401</v>
       </c>
       <c r="C21" s="0">
-        <v>0.047126375138759599</v>
+        <v>0.0592396706342697</v>
       </c>
       <c r="D21" s="0">
-        <v>0.047948215156793601</v>
+        <v>0.055987201631069197</v>
       </c>
       <c r="E21" s="0">
-        <v>0.068322367966175093</v>
+        <v>0.070993147790432004</v>
       </c>
       <c r="F21" s="0">
-        <v>0.067467145621776595</v>
+        <v>0.070639885962009402</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.021319456398487101</v>
+        <v>0.0203128177672625</v>
       </c>
       <c r="B22" s="0">
-        <v>0.037999350577592801</v>
+        <v>0.050000000745058101</v>
       </c>
       <c r="C22" s="0">
         <v>0</v>
       </c>
       <c r="D22" s="0">
-        <v>0.0140156457200646</v>
+        <v>0.017415022477507602</v>
       </c>
       <c r="E22" s="0">
-        <v>0.13304366171360019</v>
+        <v>0.1296122819185257</v>
       </c>
       <c r="F22" s="0">
-        <v>0.1505334675312042</v>
+        <v>0.15803913772106171</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1170142889022827</v>
+        <v>0.1053687781095505</v>
       </c>
       <c r="B23" s="0">
-        <v>0.13363407552242279</v>
+        <v>0.1209051162004471</v>
       </c>
       <c r="C23" s="0">
-        <v>0.14100456237792969</v>
+        <v>0.1306605935096741</v>
       </c>
       <c r="D23" s="0">
-        <v>0.13608600199222559</v>
+        <v>0.13912959396839139</v>
       </c>
       <c r="E23" s="0">
-        <v>0.1029829829931259</v>
+        <v>0.094187110662460299</v>
       </c>
       <c r="F23" s="0">
-        <v>0.095876179635524694</v>
+        <v>0.087357938289642306</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.059852175414562198</v>
+        <v>0.062565140426158905</v>
       </c>
       <c r="B24" s="0">
-        <v>0.048070378601551098</v>
+        <v>0.051128320395946503</v>
       </c>
       <c r="C24" s="0">
-        <v>0.050054047256708097</v>
+        <v>0.066053457558155101</v>
       </c>
       <c r="D24" s="0">
-        <v>0.053816281259059899</v>
+        <v>0.059826985001563998</v>
       </c>
       <c r="E24" s="0">
-        <v>0.069531127810478197</v>
+        <v>0.072163008153438596</v>
       </c>
       <c r="F24" s="0">
-        <v>0.069162450730800601</v>
+        <v>0.0688658878207207</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.040326695889234501</v>
+        <v>0.078670591115951496</v>
       </c>
       <c r="B25" s="0">
-        <v>0.012635909952223299</v>
+        <v>0.0089574996381997993</v>
       </c>
       <c r="C25" s="0">
-        <v>0.015195368789136399</v>
+        <v>0.0148478103801608</v>
       </c>
       <c r="D25" s="0">
-        <v>0.012987012974917901</v>
+        <v>0.0053667263127862999</v>
       </c>
       <c r="E25" s="0">
-        <v>0.13736620545387271</v>
+        <v>0.1613968908786774</v>
       </c>
       <c r="F25" s="0">
-        <v>0.15367783606052399</v>
+        <v>0.1669158935546875</v>
       </c>
     </row>
   </sheetData>

--- a/output/allirr_sens.xlsx
+++ b/output/allirr_sens.xlsx
@@ -55,502 +55,448 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.12003393471241</v>
+        <v>0.12292782962322241</v>
       </c>
       <c r="B1" s="0">
-        <v>0.052585378289222703</v>
+        <v>0.051033712923526799</v>
       </c>
       <c r="C1" s="0">
-        <v>0.1404354274272919</v>
+        <v>0.13615696132183069</v>
       </c>
       <c r="D1" s="0">
-        <v>0.058707192540168797</v>
+        <v>0.057321436703205102</v>
       </c>
       <c r="E1" s="0">
-        <v>0.10028420388698581</v>
+        <v>0.1080549359321594</v>
       </c>
       <c r="F1" s="0">
-        <v>0.070537604391574901</v>
+        <v>0.074916474521160098</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <v>0.12984518706798551</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0.1168612465262413</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0.1466829776763916</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0.14239673316478729</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0.1104363948106766</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0.089451350271701799</v>
-      </c>
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
     </row>
     <row r="3">
-      <c r="A3" s="0">
-        <v>0.053912065923214</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.044247906655073201</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.070638008415699005</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.050938736647367498</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.073521234095096602</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.043179519474506399</v>
-      </c>
+      <c r="A3" s="0"/>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
     </row>
     <row r="4">
-      <c r="A4" s="0">
-        <v>0.0062591279856861002</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0.0080450521782040995</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0.0042105261236428998</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0.14508241415023801</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0.082923136651516002</v>
-      </c>
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1051067933440208</v>
+        <v>0.1065006256103516</v>
       </c>
       <c r="B5" s="0">
-        <v>0.1134975627064705</v>
+        <v>0.1124669685959816</v>
       </c>
       <c r="C5" s="0">
-        <v>0.12710963189601901</v>
+        <v>0.1162553951144218</v>
       </c>
       <c r="D5" s="0">
-        <v>0.13425211608409879</v>
+        <v>0.127223014831543</v>
       </c>
       <c r="E5" s="0">
-        <v>0.1149406805634499</v>
+        <v>0.12210337817668911</v>
       </c>
       <c r="F5" s="0">
-        <v>0.1148766502737999</v>
+        <v>0.12669886648654941</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.048831760883331299</v>
+        <v>0.044720999896526302</v>
       </c>
       <c r="B6" s="0">
-        <v>0.043954648077487897</v>
+        <v>0.043176144361495999</v>
       </c>
       <c r="C6" s="0">
-        <v>0.046358942985534703</v>
+        <v>0.047327410429716103</v>
       </c>
       <c r="D6" s="0">
-        <v>0.050078492611646701</v>
+        <v>0.048303999006748199</v>
       </c>
       <c r="E6" s="0">
-        <v>0.080718755722045898</v>
+        <v>0.077444009482860607</v>
       </c>
       <c r="F6" s="0">
-        <v>0.071834608912467998</v>
+        <v>0.073828086256980896</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.060093794018030201</v>
+        <v>0.040776699781417798</v>
       </c>
       <c r="B7" s="0">
-        <v>0.016389433294534701</v>
+        <v>0.0027797920629381999</v>
       </c>
       <c r="C7" s="0">
-        <v>0.027556911110878001</v>
+        <v>0.023782938718795801</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0018274376634508001</v>
+        <v>0.012670045718550699</v>
       </c>
       <c r="E7" s="0">
-        <v>0.1257029473781586</v>
+        <v>0.096648931503295898</v>
       </c>
       <c r="F7" s="0">
-        <v>0.11181199550628659</v>
+        <v>0.088915236294269603</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.087204426527023302</v>
+        <v>0.090697713196277605</v>
       </c>
       <c r="B8" s="0">
-        <v>0.1383313983678818</v>
+        <v>0.13689388334751129</v>
       </c>
       <c r="C8" s="0">
-        <v>0.069800212979316698</v>
+        <v>0.073303960263729095</v>
       </c>
       <c r="D8" s="0">
-        <v>0.15980219841003421</v>
+        <v>0.15365363657474521</v>
       </c>
       <c r="E8" s="0">
-        <v>0.1292542964220047</v>
+        <v>0.1326894611120224</v>
       </c>
       <c r="F8" s="0">
-        <v>0.095379374921321897</v>
+        <v>0.094978705048561096</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.043424513190984698</v>
+        <v>0.043576363474130603</v>
       </c>
       <c r="B9" s="0">
-        <v>0.049792926758527797</v>
+        <v>0.047091137617826503</v>
       </c>
       <c r="C9" s="0">
-        <v>0.0465953722596169</v>
+        <v>0.043130069971084602</v>
       </c>
       <c r="D9" s="0">
-        <v>0.061148189008235897</v>
+        <v>0.0599318705499172</v>
       </c>
       <c r="E9" s="0">
-        <v>0.072941102087497697</v>
+        <v>0.074621178209781605</v>
       </c>
       <c r="F9" s="0">
-        <v>0.078975230455398601</v>
+        <v>0.077955327928066295</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0632022470235825</v>
+        <v>0.057605333626270301</v>
       </c>
       <c r="B10" s="0">
+        <v>0.0002053388161585</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.1283037066459656</v>
+      </c>
+      <c r="D10" s="0">
         <v>0</v>
       </c>
-      <c r="C10" s="0">
-        <v>0.17038747668266299</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.0054617677815258997</v>
-      </c>
       <c r="E10" s="0">
-        <v>0.078903190791606903</v>
+        <v>0.073722422122955295</v>
       </c>
       <c r="F10" s="0">
-        <v>0.20537300407886511</v>
+        <v>0.202670693397522</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.17697668075561521</v>
+        <v>0.17937321960926059</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0942516028881073</v>
+        <v>0.096207536756992298</v>
       </c>
       <c r="C11" s="0">
-        <v>0.18683937191963201</v>
+        <v>0.17623692750930789</v>
       </c>
       <c r="D11" s="0">
-        <v>0.1163068860769272</v>
+        <v>0.1146520748734474</v>
       </c>
       <c r="E11" s="0">
-        <v>0.16677649319171911</v>
+        <v>0.17598848044872281</v>
       </c>
       <c r="F11" s="0">
-        <v>0.073025815188884693</v>
+        <v>0.079174272716045394</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.078031159937381703</v>
+        <v>0.077136822044849396</v>
       </c>
       <c r="B12" s="0">
-        <v>0.044633042067289401</v>
+        <v>0.0446676798164845</v>
       </c>
       <c r="C12" s="0">
-        <v>0.078004918992519406</v>
+        <v>0.075834766030311598</v>
       </c>
       <c r="D12" s="0">
-        <v>0.053395442664623302</v>
+        <v>0.051359329372644397</v>
       </c>
       <c r="E12" s="0">
-        <v>0.16063058376312259</v>
+        <v>0.16212922334671021</v>
       </c>
       <c r="F12" s="0">
-        <v>0.045650307089090299</v>
+        <v>0.050296738743782002</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0297918953001499</v>
+        <v>0.031598903238773297</v>
       </c>
       <c r="B13" s="0">
-        <v>0.033272095024585703</v>
+        <v>0.011229195632040501</v>
       </c>
       <c r="C13" s="0">
-        <v>0.0089183626696467001</v>
+        <v>0.010291595011949499</v>
       </c>
       <c r="D13" s="0">
-        <v>0.0013239188119769001</v>
+        <v>0.006837606895715</v>
       </c>
       <c r="E13" s="0">
-        <v>0.1233319863677025</v>
+        <v>0.1264028400182724</v>
       </c>
       <c r="F13" s="0">
-        <v>0.16058781743049619</v>
+        <v>0.16270950436592099</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.13786447048187259</v>
+        <v>0.14131368696689611</v>
       </c>
       <c r="B14" s="0">
-        <v>0.12767274677753451</v>
+        <v>0.1309504508972168</v>
       </c>
       <c r="C14" s="0">
-        <v>0.15172260999679571</v>
+        <v>0.14659534394741061</v>
       </c>
       <c r="D14" s="0">
-        <v>0.12767274677753451</v>
+        <v>0.1309504508972168</v>
       </c>
       <c r="E14" s="0">
-        <v>0.13311466574668879</v>
+        <v>0.14053110778331759</v>
       </c>
       <c r="F14" s="0">
-        <v>0.124846026301384</v>
+        <v>0.1300169825553894</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.063662327826023102</v>
+        <v>0.062004830688238102</v>
       </c>
       <c r="B15" s="0">
-        <v>0.071890488266944899</v>
+        <v>0.068424478173255907</v>
       </c>
       <c r="C15" s="0">
-        <v>0.066075578331947299</v>
+        <v>0.063868008553981795</v>
       </c>
       <c r="D15" s="0">
-        <v>0.071890488266944899</v>
+        <v>0.068424478173255907</v>
       </c>
       <c r="E15" s="0">
-        <v>0.1136068105697632</v>
+        <v>0.11534348130226139</v>
       </c>
       <c r="F15" s="0">
-        <v>0.1089143380522728</v>
+        <v>0.1098549515008926</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.044401954859495198</v>
+        <v>0.0267167612910271</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0045035383664072002</v>
+        <v>0.0046858359128236996</v>
       </c>
       <c r="C16" s="0">
-        <v>0.0170842818915844</v>
+        <v>0.0106893545016646</v>
       </c>
       <c r="D16" s="0">
-        <v>0.0045035383664072002</v>
+        <v>0.0046858359128236996</v>
       </c>
       <c r="E16" s="0">
-        <v>0.1339703947305679</v>
+        <v>0.13645508885383609</v>
       </c>
       <c r="F16" s="0">
-        <v>0.088910505175590501</v>
+        <v>0.082308419048786205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.11819193512201311</v>
+        <v>0.1210729628801346</v>
       </c>
       <c r="B17" s="0">
-        <v>0.1216966286301613</v>
+        <v>0.12434825301170351</v>
       </c>
       <c r="C17" s="0">
-        <v>0.1361908167600632</v>
+        <v>0.1329021155834198</v>
       </c>
       <c r="D17" s="0">
-        <v>0.14399941265583041</v>
+        <v>0.13956356048583979</v>
       </c>
       <c r="E17" s="0">
-        <v>0.098341725766658797</v>
+        <v>0.1052983105182648</v>
       </c>
       <c r="F17" s="0">
-        <v>0.1021450683474541</v>
+        <v>0.11034621298313139</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.053218524903058999</v>
+        <v>0.051857076585292802</v>
       </c>
       <c r="B18" s="0">
-        <v>0.051956687122583403</v>
+        <v>0.050505515187978703</v>
       </c>
       <c r="C18" s="0">
-        <v>0.061122603714466102</v>
+        <v>0.058839175850152997</v>
       </c>
       <c r="D18" s="0">
-        <v>0.056701641529798501</v>
+        <v>0.055692970752716099</v>
       </c>
       <c r="E18" s="0">
-        <v>0.070945613086223602</v>
+        <v>0.075273409485816997</v>
       </c>
       <c r="F18" s="0">
-        <v>0.069775842130184201</v>
+        <v>0.074322491884231595</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.022983701899647699</v>
+        <v>0.010086455382406699</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0092729190364480001</v>
+        <v>0.0018695471808314</v>
       </c>
       <c r="C19" s="0">
-        <v>0.0077777779661119002</v>
+        <v>0.010463378392159901</v>
       </c>
       <c r="D19" s="0">
-        <v>0</v>
+        <v>0.00065075920429079998</v>
       </c>
       <c r="E19" s="0">
-        <v>0.15419875085353851</v>
+        <v>0.16071748733520511</v>
       </c>
       <c r="F19" s="0">
-        <v>0.13355530798435211</v>
+        <v>0.15053960680961609</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0">
-        <v>0.1162818297743797</v>
-      </c>
+      <c r="A20" s="0"/>
       <c r="B20" s="0">
-        <v>0.1013292521238327</v>
-      </c>
-      <c r="C20" s="0">
-        <v>0.14480291306972501</v>
-      </c>
+        <v>0.1038919016718864</v>
+      </c>
+      <c r="C20" s="0"/>
       <c r="D20" s="0">
-        <v>0.1212511509656906</v>
-      </c>
-      <c r="E20" s="0">
-        <v>0.1034600213170052</v>
-      </c>
+        <v>0.11767832189798361</v>
+      </c>
+      <c r="E20" s="0"/>
       <c r="F20" s="0">
-        <v>0.093862444162368802</v>
+        <v>0.1010311767458916</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0">
-        <v>0.054204169660806698</v>
-      </c>
+      <c r="A21" s="0"/>
       <c r="B21" s="0">
-        <v>0.051389746367931401</v>
-      </c>
-      <c r="C21" s="0">
-        <v>0.0592396706342697</v>
-      </c>
+        <v>0.050889000296592699</v>
+      </c>
+      <c r="C21" s="0"/>
       <c r="D21" s="0">
-        <v>0.055987201631069197</v>
-      </c>
-      <c r="E21" s="0">
-        <v>0.070993147790432004</v>
-      </c>
+        <v>0.052470896393060698</v>
+      </c>
+      <c r="E21" s="0"/>
       <c r="F21" s="0">
-        <v>0.070639885962009402</v>
+        <v>0.075654275715351105</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0">
-        <v>0.0203128177672625</v>
-      </c>
+      <c r="A22" s="0"/>
       <c r="B22" s="0">
-        <v>0.050000000745058101</v>
-      </c>
-      <c r="C22" s="0">
-        <v>0</v>
-      </c>
+        <v>0.044078189879655803</v>
+      </c>
+      <c r="C22" s="0"/>
       <c r="D22" s="0">
-        <v>0.017415022477507602</v>
-      </c>
-      <c r="E22" s="0">
-        <v>0.1296122819185257</v>
-      </c>
+        <v>0.012172854505479299</v>
+      </c>
+      <c r="E22" s="0"/>
       <c r="F22" s="0">
-        <v>0.15803913772106171</v>
+        <v>0.16622127592563629</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1053687781095505</v>
+        <v>0.1041273400187492</v>
       </c>
       <c r="B23" s="0">
-        <v>0.1209051162004471</v>
+        <v>0.12415648996829989</v>
       </c>
       <c r="C23" s="0">
-        <v>0.1306605935096741</v>
+        <v>0.12836737930774689</v>
       </c>
       <c r="D23" s="0">
-        <v>0.13912959396839139</v>
+        <v>0.13593441247940061</v>
       </c>
       <c r="E23" s="0">
-        <v>0.094187110662460299</v>
+        <v>0.099710471928119701</v>
       </c>
       <c r="F23" s="0">
-        <v>0.087357938289642306</v>
+        <v>0.093877412378787994</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.062565140426158905</v>
+        <v>0.062733843922615107</v>
       </c>
       <c r="B24" s="0">
-        <v>0.051128320395946503</v>
+        <v>0.050361961126327501</v>
       </c>
       <c r="C24" s="0">
-        <v>0.066053457558155101</v>
+        <v>0.063394017517566695</v>
       </c>
       <c r="D24" s="0">
-        <v>0.059826985001563998</v>
+        <v>0.056721817702054998</v>
       </c>
       <c r="E24" s="0">
-        <v>0.072163008153438596</v>
+        <v>0.077143564820289598</v>
       </c>
       <c r="F24" s="0">
-        <v>0.0688658878207207</v>
+        <v>0.073968961834907504</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.078670591115951496</v>
+        <v>0.093576848506927504</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0089574996381997993</v>
+        <v>0.0022581859957426999</v>
       </c>
       <c r="C25" s="0">
-        <v>0.0148478103801608</v>
+        <v>0.0077635864727199</v>
       </c>
       <c r="D25" s="0">
-        <v>0.0053667263127862999</v>
+        <v>0.0085185188800096998</v>
       </c>
       <c r="E25" s="0">
-        <v>0.1613968908786774</v>
+        <v>0.16793183982372281</v>
       </c>
       <c r="F25" s="0">
-        <v>0.1669158935546875</v>
+        <v>0.1646241098642349</v>
       </c>
     </row>
   </sheetData>

--- a/output/allirr_sens.xlsx
+++ b/output/allirr_sens.xlsx
@@ -74,28 +74,64 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
+      <c r="A2" s="0">
+        <v>0.1320381164550781</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.11385120451450351</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.15051788091659549</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.1405914127826691</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.1180725172162056</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.092436753213405595</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
+      <c r="A3" s="0">
+        <v>0.053711842745542498</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.046482637524604797</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.094630308449268299</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.045880619436502498</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.076808370649814606</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.044679939746856703</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
+      <c r="A4" s="0">
+        <v>0.0081716040149331006</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.014247207902371901</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.016872890293598199</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.1229624375700951</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.060853432863950702</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0">

--- a/output/allirr_sens.xlsx
+++ b/output/allirr_sens.xlsx
@@ -434,43 +434,61 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0"/>
+      <c r="A20" s="0">
+        <v>0.1164517551660538</v>
+      </c>
       <c r="B20" s="0">
         <v>0.1038919016718864</v>
       </c>
-      <c r="C20" s="0"/>
+      <c r="C20" s="0">
+        <v>0.1429805010557175</v>
+      </c>
       <c r="D20" s="0">
         <v>0.11767832189798361</v>
       </c>
-      <c r="E20" s="0"/>
+      <c r="E20" s="0">
+        <v>0.1108680889010429</v>
+      </c>
       <c r="F20" s="0">
         <v>0.1010311767458916</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0"/>
+      <c r="A21" s="0">
+        <v>0.054938774555921603</v>
+      </c>
       <c r="B21" s="0">
         <v>0.050889000296592699</v>
       </c>
-      <c r="C21" s="0"/>
+      <c r="C21" s="0">
+        <v>0.052170708775520297</v>
+      </c>
       <c r="D21" s="0">
         <v>0.052470896393060698</v>
       </c>
-      <c r="E21" s="0"/>
+      <c r="E21" s="0">
+        <v>0.075324401259422302</v>
+      </c>
       <c r="F21" s="0">
         <v>0.075654275715351105</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0"/>
+      <c r="A22" s="0">
+        <v>0.011275271885097001</v>
+      </c>
       <c r="B22" s="0">
         <v>0.044078189879655803</v>
       </c>
-      <c r="C22" s="0"/>
+      <c r="C22" s="0">
+        <v>0</v>
+      </c>
       <c r="D22" s="0">
         <v>0.012172854505479299</v>
       </c>
-      <c r="E22" s="0"/>
+      <c r="E22" s="0">
+        <v>0.15197066962718961</v>
+      </c>
       <c r="F22" s="0">
         <v>0.16622127592563629</v>
       </c>

--- a/output/allirr_sens.xlsx
+++ b/output/allirr_sens.xlsx
@@ -55,502 +55,502 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.12292782962322241</v>
+        <v>0.13024559617042539</v>
       </c>
       <c r="B1" s="0">
-        <v>0.051033712923526799</v>
+        <v>0.0455119162797928</v>
       </c>
       <c r="C1" s="0">
-        <v>0.13615696132183069</v>
+        <v>0.1309330612421036</v>
       </c>
       <c r="D1" s="0">
-        <v>0.057321436703205102</v>
+        <v>0.060401104390621199</v>
       </c>
       <c r="E1" s="0">
-        <v>0.1080549359321594</v>
+        <v>0.10350744426250461</v>
       </c>
       <c r="F1" s="0">
-        <v>0.074916474521160098</v>
+        <v>0.076170668005943298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.1320381164550781</v>
+        <v>0.14045827090740201</v>
       </c>
       <c r="B2" s="0">
-        <v>0.11385120451450351</v>
+        <v>0.12509785592556</v>
       </c>
       <c r="C2" s="0">
-        <v>0.15051788091659549</v>
+        <v>0.14628301560878751</v>
       </c>
       <c r="D2" s="0">
-        <v>0.1405914127826691</v>
+        <v>0.13660842180252081</v>
       </c>
       <c r="E2" s="0">
-        <v>0.1180725172162056</v>
+        <v>0.11633794009685521</v>
       </c>
       <c r="F2" s="0">
-        <v>0.092436753213405595</v>
+        <v>0.086985923349857303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.053711842745542498</v>
+        <v>0.046760093420743901</v>
       </c>
       <c r="B3" s="0">
-        <v>0.046482637524604797</v>
+        <v>0.03666115924716</v>
       </c>
       <c r="C3" s="0">
-        <v>0.094630308449268299</v>
+        <v>0.096162267029285403</v>
       </c>
       <c r="D3" s="0">
-        <v>0.045880619436502498</v>
+        <v>0.047332085669040701</v>
       </c>
       <c r="E3" s="0">
-        <v>0.076808370649814606</v>
+        <v>0.079226404428482097</v>
       </c>
       <c r="F3" s="0">
-        <v>0.044679939746856703</v>
+        <v>0.0474563203752041</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0081716040149331006</v>
+        <v>0.00021468441991600001</v>
       </c>
       <c r="B4" s="0">
-        <v>0.014247207902371901</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.016872890293598199</v>
+        <v>0.016953036189079299</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.1229624375700951</v>
+        <v>0.1357651203870773</v>
       </c>
       <c r="F4" s="0">
-        <v>0.060853432863950702</v>
+        <v>0.11699530482292179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1065006256103516</v>
+        <v>0.106652058660984</v>
       </c>
       <c r="B5" s="0">
-        <v>0.1124669685959816</v>
+        <v>0.1130557134747505</v>
       </c>
       <c r="C5" s="0">
-        <v>0.1162553951144218</v>
+        <v>0.11697448790073391</v>
       </c>
       <c r="D5" s="0">
-        <v>0.127223014831543</v>
+        <v>0.12681931257247919</v>
       </c>
       <c r="E5" s="0">
-        <v>0.12210337817668911</v>
+        <v>0.1230039075016975</v>
       </c>
       <c r="F5" s="0">
-        <v>0.12669886648654941</v>
+        <v>0.1302106976509094</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.044720999896526302</v>
+        <v>0.045058775693178198</v>
       </c>
       <c r="B6" s="0">
-        <v>0.043176144361495999</v>
+        <v>0.042951025068759897</v>
       </c>
       <c r="C6" s="0">
-        <v>0.047327410429716103</v>
+        <v>0.047310397028923</v>
       </c>
       <c r="D6" s="0">
-        <v>0.048303999006748199</v>
+        <v>0.047536350786685902</v>
       </c>
       <c r="E6" s="0">
-        <v>0.077444009482860607</v>
+        <v>0.077738009393215193</v>
       </c>
       <c r="F6" s="0">
-        <v>0.073828086256980896</v>
+        <v>0.074161179363727597</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.040776699781417798</v>
+        <v>0.039168223738670301</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0027797920629381999</v>
+        <v>0.0040389639325439999</v>
       </c>
       <c r="C7" s="0">
-        <v>0.023782938718795801</v>
+        <v>0.023401113227009801</v>
       </c>
       <c r="D7" s="0">
-        <v>0.012670045718550699</v>
+        <v>0.0132978726178408</v>
       </c>
       <c r="E7" s="0">
-        <v>0.096648931503295898</v>
+        <v>0.086982339620590196</v>
       </c>
       <c r="F7" s="0">
-        <v>0.088915236294269603</v>
+        <v>0.090085960924625397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.090697713196277605</v>
+        <v>0.0904230326414108</v>
       </c>
       <c r="B8" s="0">
-        <v>0.13689388334751129</v>
+        <v>0.1403180658817291</v>
       </c>
       <c r="C8" s="0">
-        <v>0.073303960263729095</v>
+        <v>0.071309395134449005</v>
       </c>
       <c r="D8" s="0">
-        <v>0.15365363657474521</v>
+        <v>0.15433242917060849</v>
       </c>
       <c r="E8" s="0">
-        <v>0.1326894611120224</v>
+        <v>0.13943906128406519</v>
       </c>
       <c r="F8" s="0">
-        <v>0.094978705048561096</v>
+        <v>0.098622441291809096</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.043576363474130603</v>
+        <v>0.043302044272422797</v>
       </c>
       <c r="B9" s="0">
-        <v>0.047091137617826503</v>
+        <v>0.043154139071702999</v>
       </c>
       <c r="C9" s="0">
-        <v>0.043130069971084602</v>
+        <v>0.042557649314403499</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0599318705499172</v>
+        <v>0.058396071195602403</v>
       </c>
       <c r="E9" s="0">
-        <v>0.074621178209781605</v>
+        <v>0.071399375796318096</v>
       </c>
       <c r="F9" s="0">
-        <v>0.077955327928066295</v>
+        <v>0.077502198517322499</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.057605333626270301</v>
+        <v>0.055270235985517502</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0002053388161585</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>0.1283037066459656</v>
+        <v>0.1330072283744812</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.073722422122955295</v>
+        <v>0.064911752939224202</v>
       </c>
       <c r="F10" s="0">
-        <v>0.202670693397522</v>
+        <v>0.18765714764595029</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.17937321960926059</v>
+        <v>0.19763857126235959</v>
       </c>
       <c r="B11" s="0">
-        <v>0.096207536756992298</v>
+        <v>0.1116754487156868</v>
       </c>
       <c r="C11" s="0">
-        <v>0.17623692750930789</v>
+        <v>0.17502295970916751</v>
       </c>
       <c r="D11" s="0">
-        <v>0.1146520748734474</v>
+        <v>0.1119167879223824</v>
       </c>
       <c r="E11" s="0">
-        <v>0.17598848044872281</v>
+        <v>0.2108000963926315</v>
       </c>
       <c r="F11" s="0">
-        <v>0.079174272716045394</v>
+        <v>0.094779260456562001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.077136822044849396</v>
+        <v>0.082127459347248105</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0446676798164845</v>
+        <v>0.066888876259326893</v>
       </c>
       <c r="C12" s="0">
-        <v>0.075834766030311598</v>
+        <v>0.077226847410201999</v>
       </c>
       <c r="D12" s="0">
-        <v>0.051359329372644397</v>
+        <v>0.054282832890748998</v>
       </c>
       <c r="E12" s="0">
-        <v>0.16212922334671021</v>
+        <v>0.18959057331085211</v>
       </c>
       <c r="F12" s="0">
-        <v>0.050296738743782002</v>
+        <v>0.097040243446826893</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.031598903238773297</v>
+        <v>0.0172811057418585</v>
       </c>
       <c r="B13" s="0">
-        <v>0.011229195632040501</v>
+        <v>0.0052038161084055996</v>
       </c>
       <c r="C13" s="0">
-        <v>0.010291595011949499</v>
+        <v>0.0105401845648885</v>
       </c>
       <c r="D13" s="0">
-        <v>0.006837606895715</v>
+        <v>0.0151909720152617</v>
       </c>
       <c r="E13" s="0">
-        <v>0.1264028400182724</v>
+        <v>0.12259459495544429</v>
       </c>
       <c r="F13" s="0">
-        <v>0.16270950436592099</v>
+        <v>0.083593033254146604</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.14131368696689611</v>
+        <v>0.1502533704042435</v>
       </c>
       <c r="B14" s="0">
-        <v>0.1309504508972168</v>
+        <v>0.13819848001003271</v>
       </c>
       <c r="C14" s="0">
-        <v>0.14659534394741061</v>
+        <v>0.1409909725189209</v>
       </c>
       <c r="D14" s="0">
-        <v>0.1309504508972168</v>
+        <v>0.13819848001003271</v>
       </c>
       <c r="E14" s="0">
-        <v>0.14053110778331759</v>
+        <v>0.13708522915840149</v>
       </c>
       <c r="F14" s="0">
-        <v>0.1300169825553894</v>
+        <v>0.12625895440578461</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.062004830688238102</v>
+        <v>0.055744968354702003</v>
       </c>
       <c r="B15" s="0">
-        <v>0.068424478173255907</v>
+        <v>0.0649080500006676</v>
       </c>
       <c r="C15" s="0">
-        <v>0.063868008553981795</v>
+        <v>0.066817440092563601</v>
       </c>
       <c r="D15" s="0">
-        <v>0.068424478173255907</v>
+        <v>0.0649080500006676</v>
       </c>
       <c r="E15" s="0">
-        <v>0.11534348130226139</v>
+        <v>0.1165240481495857</v>
       </c>
       <c r="F15" s="0">
-        <v>0.1098549515008926</v>
+        <v>0.1119154095649719</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0267167612910271</v>
+        <v>0.011255793273448901</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0046858359128236996</v>
+        <v>0.0044563277624546996</v>
       </c>
       <c r="C16" s="0">
-        <v>0.0106893545016646</v>
+        <v>0.010738548822701</v>
       </c>
       <c r="D16" s="0">
-        <v>0.0046858359128236996</v>
+        <v>0.0044563277624546996</v>
       </c>
       <c r="E16" s="0">
-        <v>0.13645508885383609</v>
+        <v>0.15761689841747281</v>
       </c>
       <c r="F16" s="0">
-        <v>0.082308419048786205</v>
+        <v>0.083187557756900801</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1210729628801346</v>
+        <v>0.1267109215259552</v>
       </c>
       <c r="B17" s="0">
-        <v>0.12434825301170351</v>
+        <v>0.13300177454948431</v>
       </c>
       <c r="C17" s="0">
-        <v>0.1329021155834198</v>
+        <v>0.12952254712581629</v>
       </c>
       <c r="D17" s="0">
-        <v>0.13956356048583979</v>
+        <v>0.1328116953372955</v>
       </c>
       <c r="E17" s="0">
-        <v>0.1052983105182648</v>
+        <v>0.10165296494960779</v>
       </c>
       <c r="F17" s="0">
-        <v>0.11034621298313139</v>
+        <v>0.10464476048946381</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.051857076585292802</v>
+        <v>0.047863800078630399</v>
       </c>
       <c r="B18" s="0">
-        <v>0.050505515187978703</v>
+        <v>0.043602250516414601</v>
       </c>
       <c r="C18" s="0">
-        <v>0.058839175850152997</v>
+        <v>0.060774229466915103</v>
       </c>
       <c r="D18" s="0">
-        <v>0.055692970752716099</v>
+        <v>0.059672001749277101</v>
       </c>
       <c r="E18" s="0">
-        <v>0.075273409485816997</v>
+        <v>0.076149739325046498</v>
       </c>
       <c r="F18" s="0">
-        <v>0.074322491884231595</v>
+        <v>0.076099298894405407</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.010086455382406699</v>
+        <v>0.00063856958877300004</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0018695471808314</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0">
-        <v>0.010463378392159901</v>
+        <v>0.0111062722280622</v>
       </c>
       <c r="D19" s="0">
-        <v>0.00065075920429079998</v>
+        <v>0.011065307073295101</v>
       </c>
       <c r="E19" s="0">
-        <v>0.16071748733520511</v>
+        <v>0.16930438578128809</v>
       </c>
       <c r="F19" s="0">
-        <v>0.15053960680961609</v>
+        <v>0.16561572253704071</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1164517551660538</v>
+        <v>0.127488449215889</v>
       </c>
       <c r="B20" s="0">
-        <v>0.1038919016718864</v>
+        <v>0.1131689622998238</v>
       </c>
       <c r="C20" s="0">
-        <v>0.1429805010557175</v>
+        <v>0.1416891664266586</v>
       </c>
       <c r="D20" s="0">
-        <v>0.11767832189798361</v>
+        <v>0.1117617636919022</v>
       </c>
       <c r="E20" s="0">
-        <v>0.1108680889010429</v>
+        <v>0.107168048620224</v>
       </c>
       <c r="F20" s="0">
-        <v>0.1010311767458916</v>
+        <v>0.095181405544281006</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.054938774555921603</v>
+        <v>0.048006940633058499</v>
       </c>
       <c r="B21" s="0">
-        <v>0.050889000296592699</v>
+        <v>0.046295672655105598</v>
       </c>
       <c r="C21" s="0">
-        <v>0.052170708775520297</v>
+        <v>0.052227541804313701</v>
       </c>
       <c r="D21" s="0">
-        <v>0.052470896393060698</v>
+        <v>0.053917467594146701</v>
       </c>
       <c r="E21" s="0">
-        <v>0.075324401259422302</v>
+        <v>0.076105080544948606</v>
       </c>
       <c r="F21" s="0">
-        <v>0.075654275715351105</v>
+        <v>0.076700411736965193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.011275271885097001</v>
+        <v>0.00041919932118620001</v>
       </c>
       <c r="B22" s="0">
-        <v>0.044078189879655803</v>
+        <v>0.016852792352438001</v>
       </c>
       <c r="C22" s="0">
         <v>0</v>
       </c>
       <c r="D22" s="0">
-        <v>0.012172854505479299</v>
+        <v>0.0231096688657999</v>
       </c>
       <c r="E22" s="0">
-        <v>0.15197066962718961</v>
+        <v>0.16108393669128421</v>
       </c>
       <c r="F22" s="0">
-        <v>0.16622127592563629</v>
+        <v>0.17611080408096311</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1041273400187492</v>
+        <v>0.1156354025006294</v>
       </c>
       <c r="B23" s="0">
-        <v>0.12415648996829989</v>
+        <v>0.12920601665973661</v>
       </c>
       <c r="C23" s="0">
-        <v>0.12836737930774689</v>
+        <v>0.1199959740042686</v>
       </c>
       <c r="D23" s="0">
-        <v>0.13593441247940061</v>
+        <v>0.13163237273693079</v>
       </c>
       <c r="E23" s="0">
-        <v>0.099710471928119701</v>
+        <v>0.096204213798046098</v>
       </c>
       <c r="F23" s="0">
-        <v>0.093877412378787994</v>
+        <v>0.086343556642532293</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.062733843922615107</v>
+        <v>0.057670254260301597</v>
       </c>
       <c r="B24" s="0">
-        <v>0.050361961126327501</v>
+        <v>0.047327429056167603</v>
       </c>
       <c r="C24" s="0">
-        <v>0.063394017517566695</v>
+        <v>0.067521467804908794</v>
       </c>
       <c r="D24" s="0">
-        <v>0.056721817702054998</v>
+        <v>0.059016019105911303</v>
       </c>
       <c r="E24" s="0">
-        <v>0.077143564820289598</v>
+        <v>0.078095212578773499</v>
       </c>
       <c r="F24" s="0">
-        <v>0.073968961834907504</v>
+        <v>0.074217043817043304</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.093576848506927504</v>
+        <v>0.027472527697682401</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0022581859957426999</v>
+        <v>0.00038910505827519998</v>
       </c>
       <c r="C25" s="0">
-        <v>0.0077635864727199</v>
+        <v>0.0387750044465065</v>
       </c>
       <c r="D25" s="0">
-        <v>0.0085185188800096998</v>
+        <v>0.0100727472454309</v>
       </c>
       <c r="E25" s="0">
-        <v>0.16793183982372281</v>
+        <v>0.17985612154006961</v>
       </c>
       <c r="F25" s="0">
-        <v>0.1646241098642349</v>
+        <v>0.19869403541088099</v>
       </c>
     </row>
   </sheetData>

--- a/output/allirr_sens.xlsx
+++ b/output/allirr_sens.xlsx
@@ -55,502 +55,502 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.13024559617042539</v>
+        <v>0.13695625960826871</v>
       </c>
       <c r="B1" s="0">
-        <v>0.0455119162797928</v>
+        <v>0.033158063888549798</v>
       </c>
       <c r="C1" s="0">
-        <v>0.1309330612421036</v>
+        <v>0.14672717452049261</v>
       </c>
       <c r="D1" s="0">
-        <v>0.060401104390621199</v>
+        <v>0.041931539773940998</v>
       </c>
       <c r="E1" s="0">
-        <v>0.10350744426250461</v>
+        <v>0.1009755730628967</v>
       </c>
       <c r="F1" s="0">
-        <v>0.076170668005943298</v>
+        <v>0.059732083231210702</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.14045827090740201</v>
+        <v>0.132381871342659</v>
       </c>
       <c r="B2" s="0">
-        <v>0.12509785592556</v>
+        <v>0.13975913822650909</v>
       </c>
       <c r="C2" s="0">
-        <v>0.14628301560878751</v>
+        <v>0.13897581398487091</v>
       </c>
       <c r="D2" s="0">
-        <v>0.13660842180252081</v>
+        <v>0.12991788983345029</v>
       </c>
       <c r="E2" s="0">
-        <v>0.11633794009685521</v>
+        <v>0.096222594380378695</v>
       </c>
       <c r="F2" s="0">
-        <v>0.086985923349857303</v>
+        <v>0.1001248434185982</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.046760093420743901</v>
+        <v>0.029387287795543698</v>
       </c>
       <c r="B3" s="0">
-        <v>0.03666115924716</v>
+        <v>0.030556762591004399</v>
       </c>
       <c r="C3" s="0">
-        <v>0.096162267029285403</v>
+        <v>0.036906208842992803</v>
       </c>
       <c r="D3" s="0">
-        <v>0.047332085669040701</v>
+        <v>0.0431717000901699</v>
       </c>
       <c r="E3" s="0">
-        <v>0.079226404428482097</v>
+        <v>0.0603292025625706</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0474563203752041</v>
+        <v>0.049330651760101298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.00021468441991600001</v>
+        <v>0.0055437101982534001</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.016953036189079299</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>0.00021910604846200001</v>
       </c>
       <c r="E4" s="0">
-        <v>0.1357651203870773</v>
+        <v>0.12084000557661061</v>
       </c>
       <c r="F4" s="0">
-        <v>0.11699530482292179</v>
+        <v>0.053503692150116001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.106652058660984</v>
+        <v>0.087599314749240903</v>
       </c>
       <c r="B5" s="0">
-        <v>0.1130557134747505</v>
+        <v>0.1197661235928535</v>
       </c>
       <c r="C5" s="0">
-        <v>0.11697448790073391</v>
+        <v>0.1182563677430153</v>
       </c>
       <c r="D5" s="0">
-        <v>0.12681931257247919</v>
+        <v>0.12757778167724609</v>
       </c>
       <c r="E5" s="0">
-        <v>0.1230039075016975</v>
+        <v>0.10668715834617611</v>
       </c>
       <c r="F5" s="0">
-        <v>0.1302106976509094</v>
+        <v>0.1171298548579216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.045058775693178198</v>
+        <v>0.044507808983326</v>
       </c>
       <c r="B6" s="0">
-        <v>0.042951025068759897</v>
+        <v>0.033646345138549798</v>
       </c>
       <c r="C6" s="0">
-        <v>0.047310397028923</v>
+        <v>0.047915916889905902</v>
       </c>
       <c r="D6" s="0">
-        <v>0.047536350786685902</v>
+        <v>0.046917513012885999</v>
       </c>
       <c r="E6" s="0">
-        <v>0.077738009393215193</v>
+        <v>0.057545278221368797</v>
       </c>
       <c r="F6" s="0">
-        <v>0.074161179363727597</v>
+        <v>0.052464522421360002</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.039168223738670301</v>
+        <v>0.079227983951568604</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0040389639325439999</v>
+        <v>0.0104092257097363</v>
       </c>
       <c r="C7" s="0">
-        <v>0.023401113227009801</v>
+        <v>0.042112924158573199</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0132978726178408</v>
+        <v>0.0127691812813282</v>
       </c>
       <c r="E7" s="0">
-        <v>0.086982339620590196</v>
+        <v>0.0638393834233284</v>
       </c>
       <c r="F7" s="0">
-        <v>0.090085960924625397</v>
+        <v>0.052548490464687299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0904230326414108</v>
+        <v>0.093807175755500793</v>
       </c>
       <c r="B8" s="0">
-        <v>0.1403180658817291</v>
+        <v>0.15594317018985751</v>
       </c>
       <c r="C8" s="0">
-        <v>0.071309395134449005</v>
+        <v>0.0600170195102692</v>
       </c>
       <c r="D8" s="0">
-        <v>0.15433242917060849</v>
+        <v>0.15801483392715451</v>
       </c>
       <c r="E8" s="0">
-        <v>0.13943906128406519</v>
+        <v>0.13391111791133881</v>
       </c>
       <c r="F8" s="0">
-        <v>0.098622441291809096</v>
+        <v>0.088459320366382599</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.043302044272422797</v>
+        <v>0.041636675596237203</v>
       </c>
       <c r="B9" s="0">
-        <v>0.043154139071702999</v>
+        <v>0.042641803622245802</v>
       </c>
       <c r="C9" s="0">
-        <v>0.042557649314403499</v>
+        <v>0.036320630460977603</v>
       </c>
       <c r="D9" s="0">
-        <v>0.058396071195602403</v>
+        <v>0.050163853913545602</v>
       </c>
       <c r="E9" s="0">
-        <v>0.071399375796318096</v>
+        <v>0.057189662009477601</v>
       </c>
       <c r="F9" s="0">
-        <v>0.077502198517322499</v>
+        <v>0.069566562771797194</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.055270235985517502</v>
+        <v>0.057404726743698099</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>0.1330072283744812</v>
+        <v>0.18238712847232821</v>
       </c>
       <c r="D10" s="0">
-        <v>0</v>
+        <v>0.011248594149947199</v>
       </c>
       <c r="E10" s="0">
-        <v>0.064911752939224202</v>
+        <v>0.039286792278289802</v>
       </c>
       <c r="F10" s="0">
-        <v>0.18765714764595029</v>
+        <v>0.22235822677612299</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.19763857126235959</v>
+        <v>0.1830919831991196</v>
       </c>
       <c r="B11" s="0">
-        <v>0.1116754487156868</v>
+        <v>0.11191970109939579</v>
       </c>
       <c r="C11" s="0">
-        <v>0.17502295970916751</v>
+        <v>0.1938821226358414</v>
       </c>
       <c r="D11" s="0">
-        <v>0.1119167879223824</v>
+        <v>0.1207454577088356</v>
       </c>
       <c r="E11" s="0">
-        <v>0.2108000963926315</v>
+        <v>0.1771606653928757</v>
       </c>
       <c r="F11" s="0">
-        <v>0.094779260456562001</v>
+        <v>0.071250729262828799</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.082127459347248105</v>
+        <v>0.046867370605468799</v>
       </c>
       <c r="B12" s="0">
-        <v>0.066888876259326893</v>
+        <v>0.031161205843091001</v>
       </c>
       <c r="C12" s="0">
-        <v>0.077226847410201999</v>
+        <v>0.061576038599014303</v>
       </c>
       <c r="D12" s="0">
-        <v>0.054282832890748998</v>
+        <v>0.039272807538509397</v>
       </c>
       <c r="E12" s="0">
-        <v>0.18959057331085211</v>
+        <v>0.12415385991334919</v>
       </c>
       <c r="F12" s="0">
-        <v>0.097040243446826893</v>
+        <v>0.042156256735324901</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0172811057418585</v>
+        <v>0.0060456786304712001</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0052038161084055996</v>
+        <v>0.0081318207085132998</v>
       </c>
       <c r="C13" s="0">
-        <v>0.0105401845648885</v>
+        <v>0.0265803001821041</v>
       </c>
       <c r="D13" s="0">
-        <v>0.0151909720152617</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>0.12259459495544429</v>
+        <v>0.070152506232261699</v>
       </c>
       <c r="F13" s="0">
-        <v>0.083593033254146604</v>
+        <v>0.15797571837902069</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1502533704042435</v>
+        <v>0.151945635676384</v>
       </c>
       <c r="B14" s="0">
-        <v>0.13819848001003271</v>
+        <v>0.14535330235958099</v>
       </c>
       <c r="C14" s="0">
-        <v>0.1409909725189209</v>
+        <v>0.1600786745548248</v>
       </c>
       <c r="D14" s="0">
-        <v>0.13819848001003271</v>
+        <v>0.14535330235958099</v>
       </c>
       <c r="E14" s="0">
-        <v>0.13708522915840149</v>
+        <v>0.1327923387289047</v>
       </c>
       <c r="F14" s="0">
-        <v>0.12625895440578461</v>
+        <v>0.1225014626979828</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.055744968354702003</v>
+        <v>0.039503596723079702</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0649080500006676</v>
+        <v>0.063538849353790297</v>
       </c>
       <c r="C15" s="0">
-        <v>0.066817440092563601</v>
+        <v>0.051037114113569301</v>
       </c>
       <c r="D15" s="0">
-        <v>0.0649080500006676</v>
+        <v>0.063538849353790297</v>
       </c>
       <c r="E15" s="0">
-        <v>0.1165240481495857</v>
+        <v>0.082230366766452803</v>
       </c>
       <c r="F15" s="0">
-        <v>0.1119154095649719</v>
+        <v>0.099333427846431704</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.011255793273448901</v>
+        <v>0.0064430125057697001</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0044563277624546996</v>
+        <v>0.013267370872199501</v>
       </c>
       <c r="C16" s="0">
-        <v>0.010738548822701</v>
+        <v>0.011277330107986899</v>
       </c>
       <c r="D16" s="0">
-        <v>0.0044563277624546996</v>
+        <v>0.013267370872199501</v>
       </c>
       <c r="E16" s="0">
-        <v>0.15761689841747281</v>
+        <v>0.0646510720252991</v>
       </c>
       <c r="F16" s="0">
-        <v>0.083187557756900801</v>
+        <v>0.050289016216993297</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1267109215259552</v>
+        <v>0.13545417785644531</v>
       </c>
       <c r="B17" s="0">
-        <v>0.13300177454948431</v>
+        <v>0.13826748728752139</v>
       </c>
       <c r="C17" s="0">
-        <v>0.12952254712581629</v>
+        <v>0.14504200220108029</v>
       </c>
       <c r="D17" s="0">
-        <v>0.1328116953372955</v>
+        <v>0.14807642996311191</v>
       </c>
       <c r="E17" s="0">
-        <v>0.10165296494960779</v>
+        <v>0.098806999623775496</v>
       </c>
       <c r="F17" s="0">
-        <v>0.10464476048946381</v>
+        <v>0.1027766689658165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.047863800078630399</v>
+        <v>0.034292232245206798</v>
       </c>
       <c r="B18" s="0">
-        <v>0.043602250516414601</v>
+        <v>0.0322483777999878</v>
       </c>
       <c r="C18" s="0">
-        <v>0.060774229466915103</v>
+        <v>0.043071486055850997</v>
       </c>
       <c r="D18" s="0">
-        <v>0.059672001749277101</v>
+        <v>0.0411631762981415</v>
       </c>
       <c r="E18" s="0">
-        <v>0.076149739325046498</v>
+        <v>0.060066543519496897</v>
       </c>
       <c r="F18" s="0">
-        <v>0.076099298894405407</v>
+        <v>0.059591528028249699</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.00063856958877300004</v>
+        <v>0.0072115384973585996</v>
       </c>
       <c r="B19" s="0">
-        <v>0</v>
+        <v>0.0071973828598857004</v>
       </c>
       <c r="C19" s="0">
-        <v>0.0111062722280622</v>
+        <v>0.0082848183810710994</v>
       </c>
       <c r="D19" s="0">
-        <v>0.011065307073295101</v>
+        <v>0.0013434841530398001</v>
       </c>
       <c r="E19" s="0">
-        <v>0.16930438578128809</v>
+        <v>0.099025972187519101</v>
       </c>
       <c r="F19" s="0">
-        <v>0.16561572253704071</v>
+        <v>0.064587973058223697</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.127488449215889</v>
+        <v>0.1070695817470551</v>
       </c>
       <c r="B20" s="0">
-        <v>0.1131689622998238</v>
+        <v>0.116424098610878</v>
       </c>
       <c r="C20" s="0">
-        <v>0.1416891664266586</v>
+        <v>0.1203445494174957</v>
       </c>
       <c r="D20" s="0">
-        <v>0.1117617636919022</v>
+        <v>0.1192312017083168</v>
       </c>
       <c r="E20" s="0">
-        <v>0.107168048620224</v>
+        <v>0.100995771586895</v>
       </c>
       <c r="F20" s="0">
-        <v>0.095181405544281006</v>
+        <v>0.099441416561603505</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.048006940633058499</v>
+        <v>0.043606784194707898</v>
       </c>
       <c r="B21" s="0">
-        <v>0.046295672655105598</v>
+        <v>0.037941895425319699</v>
       </c>
       <c r="C21" s="0">
-        <v>0.052227541804313701</v>
+        <v>0.053061239421367597</v>
       </c>
       <c r="D21" s="0">
-        <v>0.053917467594146701</v>
+        <v>0.0487635582685471</v>
       </c>
       <c r="E21" s="0">
-        <v>0.076105080544948606</v>
+        <v>0.059530183672905003</v>
       </c>
       <c r="F21" s="0">
-        <v>0.076700411736965193</v>
+        <v>0.0602495744824409</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.00041919932118620001</v>
+        <v>0.0128230424597859</v>
       </c>
       <c r="B22" s="0">
-        <v>0.016852792352438001</v>
+        <v>0.0062150405719876003</v>
       </c>
       <c r="C22" s="0">
-        <v>0</v>
+        <v>0.036109372973442098</v>
       </c>
       <c r="D22" s="0">
-        <v>0.0231096688657999</v>
+        <v>0.0148434322327375</v>
       </c>
       <c r="E22" s="0">
-        <v>0.16108393669128421</v>
+        <v>0.073494635522365598</v>
       </c>
       <c r="F22" s="0">
-        <v>0.17611080408096311</v>
+        <v>0.094921946525573703</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1156354025006294</v>
+        <v>0.12758155167102811</v>
       </c>
       <c r="B23" s="0">
-        <v>0.12920601665973661</v>
+        <v>0.13515911996364591</v>
       </c>
       <c r="C23" s="0">
-        <v>0.1199959740042686</v>
+        <v>0.1351160258054733</v>
       </c>
       <c r="D23" s="0">
-        <v>0.13163237273693079</v>
+        <v>0.14393770694732669</v>
       </c>
       <c r="E23" s="0">
-        <v>0.096204213798046098</v>
+        <v>0.087534844875335693</v>
       </c>
       <c r="F23" s="0">
-        <v>0.086343556642532293</v>
+        <v>0.0930785462260246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.057670254260301597</v>
+        <v>0.045715603977441802</v>
       </c>
       <c r="B24" s="0">
-        <v>0.047327429056167603</v>
+        <v>0.035900216549634899</v>
       </c>
       <c r="C24" s="0">
-        <v>0.067521467804908794</v>
+        <v>0.056415244936943103</v>
       </c>
       <c r="D24" s="0">
-        <v>0.059016019105911303</v>
+        <v>0.045534443110227599</v>
       </c>
       <c r="E24" s="0">
-        <v>0.078095212578773499</v>
+        <v>0.063836678862571702</v>
       </c>
       <c r="F24" s="0">
-        <v>0.074217043817043304</v>
+        <v>0.061247617006301901</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.027472527697682401</v>
+        <v>0.0094254938885570006</v>
       </c>
       <c r="B25" s="0">
-        <v>0.00038910505827519998</v>
+        <v>0.0046672075986862</v>
       </c>
       <c r="C25" s="0">
-        <v>0.0387750044465065</v>
+        <v>0.012145749293267699</v>
       </c>
       <c r="D25" s="0">
-        <v>0.0100727472454309</v>
+        <v>0.0086336340755224002</v>
       </c>
       <c r="E25" s="0">
-        <v>0.17985612154006961</v>
+        <v>0.18941798806190491</v>
       </c>
       <c r="F25" s="0">
-        <v>0.19869403541088099</v>
+        <v>0.14545454084873199</v>
       </c>
     </row>
   </sheetData>
